--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://teflartirigoyen-my.sharepoint.com/personal/nacebo_lartirigoyen_com/Documents/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{34C4691A-A7BA-447F-ADA6-5327F037706D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1163B704-0B4B-48B9-AA07-E16FD7477BBE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB8F3D-4BF7-4E85-85EC-750703D5B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -2092,19 +2092,19 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>0.4234</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="I41">
         <v>5.3</v>
       </c>
       <c r="J41">
-        <v>20.880000000000003</v>
+        <v>23.227397260273975</v>
       </c>
       <c r="K41" s="2">
-        <v>127.28664000000001</v>
+        <v>129.7584493150685</v>
       </c>
       <c r="L41" s="2">
-        <v>0.55331242222222243</v>
+        <v>0.60343522222222234</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2130,19 +2130,19 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>0.51780000000000004</v>
+        <v>0.53520000000000001</v>
       </c>
       <c r="I42">
         <v>5.3</v>
       </c>
       <c r="J42">
-        <v>34.047123287671241</v>
+        <v>35.191232876712327</v>
       </c>
       <c r="K42" s="2">
-        <v>141.15162082191782</v>
+        <v>142.35636821917808</v>
       </c>
       <c r="L42" s="2">
-        <v>0.62584756666666674</v>
+        <v>0.64416976666666659</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2168,19 +2168,19 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>0.45400000000000001</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="I43">
         <v>5.3</v>
       </c>
       <c r="J43">
-        <v>22.389041095890413</v>
+        <v>27.872876712328765</v>
       </c>
       <c r="K43" s="2">
-        <v>128.87566027397261</v>
+        <v>134.65013917808218</v>
       </c>
       <c r="L43" s="2">
-        <v>0.58553422222222251</v>
+        <v>0.70262782222222231</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2206,19 +2206,19 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.53200000000000003</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="I44">
         <v>5.3</v>
       </c>
       <c r="J44">
-        <v>34.980821917808221</v>
+        <v>37.163835616438355</v>
       </c>
       <c r="K44" s="2">
-        <v>142.13480547945207</v>
+        <v>144.4335189041096</v>
       </c>
       <c r="L44" s="2">
-        <v>0.64080016666666695</v>
+        <v>0.67575976666666682</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2358,19 +2358,19 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="I48">
         <v>0.5</v>
       </c>
       <c r="J48">
-        <v>24.164383561643834</v>
+        <v>26.136986301369863</v>
       </c>
       <c r="K48" s="2">
-        <v>124.78520547945203</v>
+        <v>126.76767123287669</v>
       </c>
       <c r="L48" s="2">
-        <v>0.5025888888888882</v>
+        <v>0.54278888888888843</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2396,19 +2396,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="I49">
         <v>0.5</v>
       </c>
       <c r="J49">
-        <v>36.246575342465754</v>
+        <v>39.205479452054796</v>
       </c>
       <c r="K49" s="2">
-        <v>136.92780821917808</v>
+        <v>139.90150684931504</v>
       </c>
       <c r="L49" s="2">
-        <v>0.49920925925925907</v>
+        <v>0.53940925925925887</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2434,19 +2434,19 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
       <c r="I50">
         <v>0.5</v>
       </c>
       <c r="J50">
-        <v>48.328767123287669</v>
+        <v>52.273972602739725</v>
       </c>
       <c r="K50" s="2">
-        <v>149.07041095890409</v>
+        <v>153.03534246575342</v>
       </c>
       <c r="L50" s="2">
-        <v>0.49751944444444435</v>
+        <v>0.53771944444444431</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2472,19 +2472,19 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="I51">
         <v>5.2631578947368425</v>
       </c>
       <c r="J51">
-        <v>18.739726027397261</v>
+        <v>20.712328767123285</v>
       </c>
       <c r="K51" s="2">
-        <v>124.98918529199712</v>
+        <v>127.06560922855081</v>
       </c>
       <c r="L51" s="2">
-        <v>0.50672514619883047</v>
+        <v>0.54883040935672478</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2510,19 +2510,19 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.41</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="I52">
         <v>5.2631578947368425</v>
       </c>
       <c r="J52">
-        <v>30.328767123287669</v>
+        <v>32.917808219178077</v>
       </c>
       <c r="K52" s="2">
-        <v>137.18817591925017</v>
+        <v>139.91348233597691</v>
       </c>
       <c r="L52" s="2">
-        <v>0.5027290448343078</v>
+        <v>0.53957115009746559</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2548,19 +2548,19 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.42499999999999999</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I53">
         <v>5.2631578947368425</v>
       </c>
       <c r="J53">
-        <v>41.917808219178085</v>
+        <v>45.863013698630141</v>
       </c>
       <c r="K53" s="2">
-        <v>149.38716654650324</v>
+        <v>153.54001441961066</v>
       </c>
       <c r="L53" s="2">
-        <v>0.50073099415204669</v>
+        <v>0.54283625730994123</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2586,19 +2586,19 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I54">
         <v>11.111111111111112</v>
       </c>
       <c r="J54">
-        <v>12.328767123287673</v>
+        <v>14.301369863013697</v>
       </c>
       <c r="K54" s="2">
-        <v>124.80974124809742</v>
+        <v>127.00152207001521</v>
       </c>
       <c r="L54" s="2">
-        <v>0.50308641975308677</v>
+        <v>0.54753086419753061</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2624,19 +2624,19 @@
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.315</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="I55">
         <v>11.111111111111112</v>
       </c>
       <c r="J55">
-        <v>23.301369863013697</v>
+        <v>26.260273972602739</v>
       </c>
       <c r="K55" s="2">
-        <v>137.00152207001523</v>
+        <v>140.28919330289193</v>
       </c>
       <c r="L55" s="2">
-        <v>0.50020576131687267</v>
+        <v>0.54465020576131684</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2662,19 +2662,19 @@
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.35</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="I56">
         <v>11.111111111111112</v>
       </c>
       <c r="J56">
-        <v>34.520547945205479</v>
+        <v>37.972602739726028</v>
       </c>
       <c r="K56" s="2">
-        <v>149.46727549467275</v>
+        <v>153.30289193302892</v>
       </c>
       <c r="L56" s="2">
-        <v>0.50154320987654322</v>
+        <v>0.54043209876543197</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2700,19 +2700,19 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.27500000000000002</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>13.561643835616438</v>
+        <v>14.301369863013697</v>
       </c>
       <c r="K57" s="2">
-        <v>125.93986301369864</v>
+        <v>126.7602191780822</v>
       </c>
       <c r="L57" s="2">
-        <v>0.52600277777777793</v>
+        <v>0.542637777777778</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2738,19 +2738,19 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.34</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>25.150684931506852</v>
+        <v>27</v>
       </c>
       <c r="K58" s="2">
-        <v>138.7921095890411</v>
+        <v>140.84300000000002</v>
       </c>
       <c r="L58" s="2">
-        <v>0.52441185185185213</v>
+        <v>0.55213685185185202</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2776,19 +2776,19 @@
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="I59">
         <v>10.9</v>
       </c>
       <c r="J59">
-        <v>36.493150684931507</v>
+        <v>39.452054794520549</v>
       </c>
       <c r="K59" s="2">
-        <v>151.37090410958905</v>
+        <v>154.65232876712329</v>
       </c>
       <c r="L59" s="2">
-        <v>0.520843888888889</v>
+        <v>0.55411388888888891</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2814,19 +2814,19 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.29249999999999998</v>
+        <v>0.32</v>
       </c>
       <c r="I60">
         <v>10.9</v>
       </c>
       <c r="J60">
-        <v>14.424657534246574</v>
+        <v>15.780821917808218</v>
       </c>
       <c r="K60" s="2">
-        <v>126.89694520547945</v>
+        <v>128.4009315068493</v>
       </c>
       <c r="L60" s="2">
-        <v>0.54541027777777773</v>
+        <v>0.57590777777777757</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2852,19 +2852,19 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.35499999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="I61">
         <v>10.9</v>
       </c>
       <c r="J61">
-        <v>26.260273972602739</v>
+        <v>28.849315068493155</v>
       </c>
       <c r="K61" s="2">
-        <v>140.02264383561644</v>
+        <v>142.8938904109589</v>
       </c>
       <c r="L61" s="2">
-        <v>0.54104685185185197</v>
+        <v>0.5798618518518518</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2890,19 +2890,19 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.38750000000000001</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="I62">
         <v>10.9</v>
       </c>
       <c r="J62">
-        <v>38.219178082191782</v>
+        <v>41.917808219178085</v>
       </c>
       <c r="K62" s="2">
-        <v>153.28506849315067</v>
+        <v>157.3868493150685</v>
       </c>
       <c r="L62" s="2">
-        <v>0.54025138888888868</v>
+        <v>0.58183888888888902</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4942,19 +4942,19 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>8.0547945205479454</v>
+        <v>8.8767123287671232</v>
       </c>
       <c r="K116" s="2">
-        <v>110.21589041095889</v>
+        <v>111.05424657534246</v>
       </c>
       <c r="L116" s="2">
-        <v>0.62146666666666606</v>
+        <v>0.67246666666666655</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4980,19 +4980,19 @@
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>12.082191780821917</v>
+        <v>13.315068493150687</v>
       </c>
       <c r="K117" s="2">
-        <v>114.32383561643836</v>
+        <v>115.58136986301371</v>
       </c>
       <c r="L117" s="2">
-        <v>0.58091111111111093</v>
+        <v>0.63191111111111142</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5018,19 +5018,19 @@
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>24.164383561643834</v>
+        <v>26.630136986301373</v>
       </c>
       <c r="K118" s="2">
-        <v>126.6476712328767</v>
+        <v>129.16273972602738</v>
       </c>
       <c r="L118" s="2">
-        <v>0.54035555555555526</v>
+        <v>0.59135555555555541</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5056,19 +5056,19 @@
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>36.246575342465754</v>
+        <v>39.945205479452063</v>
       </c>
       <c r="K119" s="2">
-        <v>138.97150684931506</v>
+        <v>142.7441095890411</v>
       </c>
       <c r="L119" s="2">
-        <v>0.52683703703703677</v>
+        <v>0.57783703703703726</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5094,19 +5094,19 @@
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>48.328767123287669</v>
+        <v>53.260273972602747</v>
       </c>
       <c r="K120" s="2">
-        <v>151.29534246575341</v>
+        <v>156.32547945205479</v>
       </c>
       <c r="L120" s="2">
-        <v>0.52007777777777753</v>
+        <v>0.5710777777777778</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5322,19 +5322,19 @@
         <v>16</v>
       </c>
       <c r="H126">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I126">
         <v>2</v>
       </c>
       <c r="J126">
-        <v>7.0684931506849322</v>
+        <v>7.7260273972602738</v>
       </c>
       <c r="K126" s="2">
-        <v>109.20986301369864</v>
+        <v>109.88054794520548</v>
       </c>
       <c r="L126" s="2">
-        <v>0.56026666666666713</v>
+        <v>0.60106666666666642</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -5360,19 +5360,19 @@
         <v>16</v>
       </c>
       <c r="H127">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127">
-        <v>10.602739726027398</v>
+        <v>11.58904109589041</v>
       </c>
       <c r="K127" s="2">
-        <v>112.81479452054793</v>
+        <v>113.82082191780822</v>
       </c>
       <c r="L127" s="2">
-        <v>0.51971111111111112</v>
+        <v>0.56051111111111129</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -5398,19 +5398,19 @@
         <v>16</v>
       </c>
       <c r="H128">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128">
-        <v>21.205479452054796</v>
+        <v>23.17808219178082</v>
       </c>
       <c r="K128" s="2">
-        <v>123.6295890410959</v>
+        <v>125.64164383561643</v>
       </c>
       <c r="L128" s="2">
-        <v>0.47915555555555556</v>
+        <v>0.51995555555555573</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -5436,19 +5436,19 @@
         <v>16</v>
       </c>
       <c r="H129">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I129">
         <v>2</v>
       </c>
       <c r="J129">
-        <v>31.808219178082194</v>
+        <v>34.767123287671232</v>
       </c>
       <c r="K129" s="2">
-        <v>134.44438356164383</v>
+        <v>137.46246575342465</v>
       </c>
       <c r="L129" s="2">
-        <v>0.46563703703703702</v>
+        <v>0.50643703703703691</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -5474,19 +5474,19 @@
         <v>16</v>
       </c>
       <c r="H130">
-        <v>0.43</v>
+        <v>0.47</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130">
-        <v>42.410958904109592</v>
+        <v>46.356164383561641</v>
       </c>
       <c r="K130" s="2">
-        <v>145.2591780821918</v>
+        <v>149.28328767123287</v>
       </c>
       <c r="L130" s="2">
-        <v>0.45887777777777794</v>
+        <v>0.49967777777777767</v>
       </c>
     </row>
   </sheetData>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CB8F3D-4BF7-4E85-85EC-750703D5B482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5300F8-23C5-4F2B-ACAC-68F6BC6978D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L130"/>
+      <selection sqref="A1:L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,19 +2358,19 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I48">
         <v>0.5</v>
       </c>
       <c r="J48">
-        <v>26.136986301369863</v>
+        <v>27.123287671232877</v>
       </c>
       <c r="K48" s="2">
-        <v>126.76767123287669</v>
+        <v>127.75890410958904</v>
       </c>
       <c r="L48" s="2">
-        <v>0.54278888888888843</v>
+        <v>0.56288888888888877</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2396,19 +2396,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I49">
         <v>0.5</v>
       </c>
       <c r="J49">
-        <v>39.205479452054796</v>
+        <v>40.684931506849317</v>
       </c>
       <c r="K49" s="2">
-        <v>139.90150684931504</v>
+        <v>141.38835616438354</v>
       </c>
       <c r="L49" s="2">
-        <v>0.53940925925925887</v>
+        <v>0.5595092592592591</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2434,19 +2434,19 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.53</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I50">
         <v>0.5</v>
       </c>
       <c r="J50">
-        <v>52.273972602739725</v>
+        <v>54.246575342465754</v>
       </c>
       <c r="K50" s="2">
-        <v>153.03534246575342</v>
+        <v>155.01780821917805</v>
       </c>
       <c r="L50" s="2">
-        <v>0.53771944444444431</v>
+        <v>0.5578194444444442</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -2472,19 +2472,19 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.42</v>
+        <v>0.435</v>
       </c>
       <c r="I51">
         <v>5.2631578947368425</v>
       </c>
       <c r="J51">
-        <v>20.712328767123285</v>
+        <v>21.452054794520549</v>
       </c>
       <c r="K51" s="2">
-        <v>127.06560922855081</v>
+        <v>127.84426820475846</v>
       </c>
       <c r="L51" s="2">
-        <v>0.54883040935672478</v>
+        <v>0.56461988304093569</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -2510,19 +2510,19 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.44500000000000001</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I52">
         <v>5.2631578947368425</v>
       </c>
       <c r="J52">
-        <v>32.917808219178077</v>
+        <v>34.397260273972606</v>
       </c>
       <c r="K52" s="2">
-        <v>139.91348233597691</v>
+        <v>141.47080028839221</v>
       </c>
       <c r="L52" s="2">
-        <v>0.53957115009746559</v>
+        <v>0.56062378167641314</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -2548,19 +2548,19 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.46500000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="I53">
         <v>5.2631578947368425</v>
       </c>
       <c r="J53">
-        <v>45.863013698630141</v>
+        <v>47.342465753424655</v>
       </c>
       <c r="K53" s="2">
-        <v>153.54001441961066</v>
+        <v>155.09733237202596</v>
       </c>
       <c r="L53" s="2">
-        <v>0.54283625730994123</v>
+        <v>0.55862573099415214</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -2586,19 +2586,19 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.28999999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I54">
         <v>11.111111111111112</v>
       </c>
       <c r="J54">
-        <v>14.301369863013697</v>
+        <v>15.041095890410958</v>
       </c>
       <c r="K54" s="2">
-        <v>127.00152207001521</v>
+        <v>127.82343987823441</v>
       </c>
       <c r="L54" s="2">
-        <v>0.54753086419753061</v>
+        <v>0.56419753086419777</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -2624,19 +2624,19 @@
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.35499999999999998</v>
+        <v>0.37</v>
       </c>
       <c r="I55">
         <v>11.111111111111112</v>
       </c>
       <c r="J55">
-        <v>26.260273972602739</v>
+        <v>27.36986301369863</v>
       </c>
       <c r="K55" s="2">
-        <v>140.28919330289193</v>
+        <v>141.52207001522072</v>
       </c>
       <c r="L55" s="2">
-        <v>0.54465020576131684</v>
+        <v>0.56131687242798389</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -2662,19 +2662,19 @@
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.38500000000000001</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="I56">
         <v>11.111111111111112</v>
       </c>
       <c r="J56">
-        <v>37.972602739726028</v>
+        <v>39.945205479452056</v>
       </c>
       <c r="K56" s="2">
-        <v>153.30289193302892</v>
+        <v>155.49467275494675</v>
       </c>
       <c r="L56" s="2">
-        <v>0.54043209876543197</v>
+        <v>0.56265432098765455</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -2700,19 +2700,19 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>14.301369863013697</v>
+        <v>19.232876712328768</v>
       </c>
       <c r="K57" s="2">
-        <v>126.7602191780822</v>
+        <v>132.22926027397261</v>
       </c>
       <c r="L57" s="2">
-        <v>0.542637777777778</v>
+        <v>0.65353777777777811</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2738,19 +2738,19 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.36499999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>27</v>
+        <v>33.287671232876711</v>
       </c>
       <c r="K58" s="2">
-        <v>140.84300000000002</v>
+        <v>147.81602739726029</v>
       </c>
       <c r="L58" s="2">
-        <v>0.55213685185185202</v>
+        <v>0.64640185185185184</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2776,19 +2776,19 @@
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.4</v>
+        <v>0.495</v>
       </c>
       <c r="I59">
         <v>10.9</v>
       </c>
       <c r="J59">
-        <v>39.452054794520549</v>
+        <v>48.821917808219176</v>
       </c>
       <c r="K59" s="2">
-        <v>154.65232876712329</v>
+        <v>165.04350684931509</v>
       </c>
       <c r="L59" s="2">
-        <v>0.55411388888888891</v>
+        <v>0.65946888888888922</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2814,19 +2814,19 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I60">
         <v>10.9</v>
       </c>
       <c r="J60">
-        <v>15.780821917808218</v>
+        <v>19.232876712328768</v>
       </c>
       <c r="K60" s="2">
-        <v>128.4009315068493</v>
+        <v>132.22926027397261</v>
       </c>
       <c r="L60" s="2">
-        <v>0.57590777777777757</v>
+        <v>0.65353777777777811</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2852,19 +2852,19 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
       <c r="I61">
         <v>10.9</v>
       </c>
       <c r="J61">
-        <v>28.849315068493155</v>
+        <v>33.287671232876711</v>
       </c>
       <c r="K61" s="2">
-        <v>142.8938904109589</v>
+        <v>147.81602739726029</v>
       </c>
       <c r="L61" s="2">
-        <v>0.5798618518518518</v>
+        <v>0.64640185185185184</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2890,19 +2890,19 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.42499999999999999</v>
+        <v>0.495</v>
       </c>
       <c r="I62">
         <v>10.9</v>
       </c>
       <c r="J62">
-        <v>41.917808219178085</v>
+        <v>48.821917808219176</v>
       </c>
       <c r="K62" s="2">
-        <v>157.3868493150685</v>
+        <v>165.04350684931509</v>
       </c>
       <c r="L62" s="2">
-        <v>0.58183888888888902</v>
+        <v>0.65946888888888922</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -4942,19 +4942,19 @@
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>8.8767123287671232</v>
+        <v>9.2054794520547958</v>
       </c>
       <c r="K116" s="2">
-        <v>111.05424657534246</v>
+        <v>111.38958904109589</v>
       </c>
       <c r="L116" s="2">
-        <v>0.67246666666666655</v>
+        <v>0.69286666666666619</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4980,19 +4980,19 @@
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>13.315068493150687</v>
+        <v>13.808219178082194</v>
       </c>
       <c r="K117" s="2">
-        <v>115.58136986301371</v>
+        <v>116.08438356164383</v>
       </c>
       <c r="L117" s="2">
-        <v>0.63191111111111142</v>
+        <v>0.65231111111111095</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5018,19 +5018,19 @@
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>26.630136986301373</v>
+        <v>27.616438356164387</v>
       </c>
       <c r="K118" s="2">
-        <v>129.16273972602738</v>
+        <v>130.16876712328767</v>
       </c>
       <c r="L118" s="2">
-        <v>0.59135555555555541</v>
+        <v>0.6117555555555555</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5056,19 +5056,19 @@
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>39.945205479452063</v>
+        <v>41.424657534246577</v>
       </c>
       <c r="K119" s="2">
-        <v>142.7441095890411</v>
+        <v>144.25315068493151</v>
       </c>
       <c r="L119" s="2">
-        <v>0.57783703703703726</v>
+        <v>0.59823703703703723</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5094,19 +5094,19 @@
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.54</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>53.260273972602747</v>
+        <v>55.232876712328775</v>
       </c>
       <c r="K120" s="2">
-        <v>156.32547945205479</v>
+        <v>158.33753424657536</v>
       </c>
       <c r="L120" s="2">
-        <v>0.5710777777777778</v>
+        <v>0.59147777777777788</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5300F8-23C5-4F2B-ACAC-68F6BC6978D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C91239-F0CB-43BC-A24B-D45C26646FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -541,7 +541,7 @@
   <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:L130"/>
+      <selection activeCell="A2" sqref="A2:L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,19 +2700,19 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.39</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>19.232876712328768</v>
+        <v>20.958904109589042</v>
       </c>
       <c r="K57" s="2">
-        <v>132.22926027397261</v>
+        <v>134.14342465753427</v>
       </c>
       <c r="L57" s="2">
-        <v>0.65353777777777811</v>
+        <v>0.69235277777777804</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2738,19 +2738,19 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>33.287671232876711</v>
+        <v>36.246575342465754</v>
       </c>
       <c r="K58" s="2">
-        <v>147.81602739726029</v>
+        <v>151.09745205479453</v>
       </c>
       <c r="L58" s="2">
-        <v>0.64640185185185184</v>
+        <v>0.6907618518518519</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2776,19 +2776,19 @@
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.495</v>
+        <v>0.53</v>
       </c>
       <c r="I59">
         <v>10.9</v>
       </c>
       <c r="J59">
-        <v>48.821917808219176</v>
+        <v>52.273972602739725</v>
       </c>
       <c r="K59" s="2">
-        <v>165.04350684931509</v>
+        <v>168.87183561643837</v>
       </c>
       <c r="L59" s="2">
-        <v>0.65946888888888922</v>
+        <v>0.69828388888888904</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2814,19 +2814,19 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.39</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="I60">
         <v>10.9</v>
       </c>
       <c r="J60">
-        <v>19.232876712328768</v>
+        <v>20.958904109589042</v>
       </c>
       <c r="K60" s="2">
-        <v>132.22926027397261</v>
+        <v>134.14342465753427</v>
       </c>
       <c r="L60" s="2">
-        <v>0.65353777777777811</v>
+        <v>0.69235277777777804</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2852,19 +2852,19 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="I61">
         <v>10.9</v>
       </c>
       <c r="J61">
-        <v>33.287671232876711</v>
+        <v>36.246575342465754</v>
       </c>
       <c r="K61" s="2">
-        <v>147.81602739726029</v>
+        <v>151.09745205479453</v>
       </c>
       <c r="L61" s="2">
-        <v>0.64640185185185184</v>
+        <v>0.6907618518518519</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2890,19 +2890,19 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.495</v>
+        <v>0.53</v>
       </c>
       <c r="I62">
         <v>10.9</v>
       </c>
       <c r="J62">
-        <v>48.821917808219176</v>
+        <v>52.273972602739725</v>
       </c>
       <c r="K62" s="2">
-        <v>165.04350684931509</v>
+        <v>168.87183561643837</v>
       </c>
       <c r="L62" s="2">
-        <v>0.65946888888888922</v>
+        <v>0.69828388888888904</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -5132,19 +5132,19 @@
         <v>16</v>
       </c>
       <c r="H121">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>5.2602739726027403</v>
+        <v>6.9041095890410951</v>
       </c>
       <c r="K121" s="2">
-        <v>107.36547945205479</v>
+        <v>109.04219178082191</v>
       </c>
       <c r="L121" s="2">
-        <v>0.44806666666666639</v>
+        <v>0.55006666666666593</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5170,19 +5170,19 @@
         <v>16</v>
       </c>
       <c r="H122">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>7.8904109589041092</v>
+        <v>10.356164383561643</v>
       </c>
       <c r="K122" s="2">
-        <v>110.04821917808219</v>
+        <v>112.56328767123287</v>
       </c>
       <c r="L122" s="2">
-        <v>0.40751111111111088</v>
+        <v>0.50951111111111091</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5208,19 +5208,19 @@
         <v>16</v>
       </c>
       <c r="H123">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>15.780821917808218</v>
+        <v>20.712328767123285</v>
       </c>
       <c r="K123" s="2">
-        <v>118.09643835616437</v>
+        <v>123.12657534246574</v>
       </c>
       <c r="L123" s="2">
-        <v>0.3669555555555552</v>
+        <v>0.46895555555555524</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5246,19 +5246,19 @@
         <v>16</v>
       </c>
       <c r="H124">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>23.671232876712327</v>
+        <v>31.06849315068493</v>
       </c>
       <c r="K124" s="2">
-        <v>126.14465753424658</v>
+        <v>133.68986301369861</v>
       </c>
       <c r="L124" s="2">
-        <v>0.35343703703703705</v>
+        <v>0.45543703703703675</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -5284,19 +5284,19 @@
         <v>16</v>
       </c>
       <c r="H125">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125">
-        <v>31.561643835616437</v>
+        <v>41.42465753424657</v>
       </c>
       <c r="K125" s="2">
-        <v>134.19287671232877</v>
+        <v>144.25315068493151</v>
       </c>
       <c r="L125" s="2">
-        <v>0.34667777777777786</v>
+        <v>0.4486777777777779</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C91239-F0CB-43BC-A24B-D45C26646FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F40338-C86D-468E-8423-7D5F79676672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="37">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -144,12 +144,6 @@
   </si>
   <si>
     <t>Pyme</t>
-  </si>
-  <si>
-    <t>PROCAMPO DIGITAL - Promo 1</t>
-  </si>
-  <si>
-    <t>PROCAMPO DIGITAL - Promo 2</t>
   </si>
   <si>
     <t>Tipo de Empresa</t>
@@ -538,20 +532,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L130"/>
+  <dimension ref="A1:L124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L130"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1712,19 +1707,19 @@
         <v>16</v>
       </c>
       <c r="H31">
-        <v>0.255</v>
+        <v>0.35</v>
       </c>
       <c r="I31">
         <v>13.4</v>
       </c>
       <c r="J31">
-        <v>12.575342465753426</v>
+        <v>17.260273972602739</v>
       </c>
       <c r="K31" s="2">
-        <v>127.66043835616438</v>
+        <v>132.97315068493151</v>
       </c>
       <c r="L31" s="2">
-        <v>0.56089222222222224</v>
+        <v>0.66862222222222245</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1750,19 +1745,19 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <v>0.36</v>
+        <v>0.43</v>
       </c>
       <c r="I32">
         <v>13.4</v>
       </c>
       <c r="J32">
-        <v>26.630136986301366</v>
+        <v>31.808219178082194</v>
       </c>
       <c r="K32" s="2">
-        <v>143.59857534246575</v>
+        <v>149.4705205479452</v>
       </c>
       <c r="L32" s="2">
-        <v>0.58938814814814799</v>
+        <v>0.66876814814814822</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1788,19 +1783,19 @@
         <v>16</v>
       </c>
       <c r="H33">
-        <v>0.45</v>
+        <v>0.48</v>
       </c>
       <c r="I33">
         <v>13.4</v>
       </c>
       <c r="J33">
-        <v>44.38356164383562</v>
+        <v>47.342465753424655</v>
       </c>
       <c r="K33" s="2">
-        <v>163.73095890410957</v>
+        <v>167.08635616438357</v>
       </c>
       <c r="L33" s="2">
-        <v>0.64616111111111108</v>
+        <v>0.68018111111111113</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1826,19 +1821,19 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>0.28000000000000003</v>
+        <v>0.38</v>
       </c>
       <c r="I34">
         <v>13.4</v>
       </c>
       <c r="J34">
-        <v>13.808219178082194</v>
+        <v>18.739726027397261</v>
       </c>
       <c r="K34" s="2">
-        <v>129.05852054794519</v>
+        <v>134.65084931506848</v>
       </c>
       <c r="L34" s="2">
-        <v>0.58924222222222211</v>
+        <v>0.70264222222222195</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1864,19 +1859,19 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="I35">
         <v>13.4</v>
       </c>
       <c r="J35">
-        <v>28.849315068493155</v>
+        <v>34.027397260273972</v>
       </c>
       <c r="K35" s="2">
-        <v>146.11512328767122</v>
+        <v>151.98706849315067</v>
       </c>
       <c r="L35" s="2">
-        <v>0.62340814814814804</v>
+        <v>0.70278814814814794</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1902,19 +1897,19 @@
         <v>16</v>
       </c>
       <c r="H36">
-        <v>0.47499999999999998</v>
+        <v>0.52</v>
       </c>
       <c r="I36">
         <v>13.4</v>
       </c>
       <c r="J36">
-        <v>46.849315068493155</v>
+        <v>51.287671232876711</v>
       </c>
       <c r="K36" s="2">
-        <v>166.5271232876712</v>
+        <v>171.56021917808215</v>
       </c>
       <c r="L36" s="2">
-        <v>0.67451111111111095</v>
+        <v>0.72554111111111064</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2092,19 +2087,19 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>0.47099999999999997</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="I41">
         <v>5.3</v>
       </c>
       <c r="J41">
-        <v>23.227397260273975</v>
+        <v>26.506849315068493</v>
       </c>
       <c r="K41" s="2">
-        <v>129.7584493150685</v>
+        <v>133.21171232876713</v>
       </c>
       <c r="L41" s="2">
-        <v>0.60343522222222234</v>
+        <v>0.6734597222222225</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2130,19 +2125,19 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>0.53520000000000001</v>
+        <v>0.62060000000000004</v>
       </c>
       <c r="I42">
         <v>5.3</v>
       </c>
       <c r="J42">
-        <v>35.191232876712327</v>
+        <v>40.806575342465756</v>
       </c>
       <c r="K42" s="2">
-        <v>142.35636821917808</v>
+        <v>148.26932383561643</v>
       </c>
       <c r="L42" s="2">
-        <v>0.64416976666666659</v>
+        <v>0.73409596666666677</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2168,19 +2163,19 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>0.56520000000000004</v>
+        <v>0.63170000000000004</v>
       </c>
       <c r="I43">
         <v>5.3</v>
       </c>
       <c r="J43">
-        <v>27.872876712328765</v>
+        <v>31.15232876712329</v>
       </c>
       <c r="K43" s="2">
-        <v>134.65013917808218</v>
+        <v>138.10340219178082</v>
       </c>
       <c r="L43" s="2">
-        <v>0.70262782222222231</v>
+        <v>0.77265232222222202</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2206,19 +2201,19 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.56520000000000004</v>
+        <v>0.66500000000000004</v>
       </c>
       <c r="I44">
         <v>5.3</v>
       </c>
       <c r="J44">
-        <v>37.163835616438355</v>
+        <v>43.726027397260275</v>
       </c>
       <c r="K44" s="2">
-        <v>144.4335189041096</v>
+        <v>151.34350684931508</v>
       </c>
       <c r="L44" s="2">
-        <v>0.67575976666666682</v>
+        <v>0.78084916666666682</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2358,19 +2353,19 @@
         <v>16</v>
       </c>
       <c r="H48">
-        <v>0.55000000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="I48">
         <v>0.5</v>
       </c>
       <c r="J48">
-        <v>27.123287671232877</v>
+        <v>37.479452054794521</v>
       </c>
       <c r="K48" s="2">
-        <v>127.75890410958904</v>
+        <v>138.16684931506848</v>
       </c>
       <c r="L48" s="2">
-        <v>0.56288888888888877</v>
+        <v>0.77393888888888873</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -2396,19 +2391,19 @@
         <v>16</v>
       </c>
       <c r="H49">
-        <v>0.55000000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="I49">
         <v>0.5</v>
       </c>
       <c r="J49">
-        <v>40.684931506849317</v>
+        <v>56.219178082191782</v>
       </c>
       <c r="K49" s="2">
-        <v>141.38835616438354</v>
+        <v>157.00027397260271</v>
       </c>
       <c r="L49" s="2">
-        <v>0.5595092592592591</v>
+        <v>0.77055925925925894</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -2434,30 +2429,30 @@
         <v>16</v>
       </c>
       <c r="H50">
-        <v>0.55000000000000004</v>
+        <v>0.76</v>
       </c>
       <c r="I50">
         <v>0.5</v>
       </c>
       <c r="J50">
-        <v>54.246575342465754</v>
+        <v>74.958904109589042</v>
       </c>
       <c r="K50" s="2">
-        <v>155.01780821917805</v>
+        <v>175.83369863013698</v>
       </c>
       <c r="L50" s="2">
-        <v>0.5578194444444442</v>
+        <v>0.76886944444444438</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B51" s="1">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2472,30 +2467,30 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.435</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="I51">
-        <v>5.2631578947368425</v>
+        <v>10.9</v>
       </c>
       <c r="J51">
-        <v>21.452054794520549</v>
+        <v>23.794520547945204</v>
       </c>
       <c r="K51" s="2">
-        <v>127.84426820475846</v>
+        <v>137.28812328767123</v>
       </c>
       <c r="L51" s="2">
-        <v>0.56461988304093569</v>
+        <v>0.75612027777777735</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B52" s="1">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2510,30 +2505,30 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.46500000000000002</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I52">
-        <v>5.2631578947368425</v>
+        <v>10.9</v>
       </c>
       <c r="J52">
-        <v>34.397260273972606</v>
+        <v>40.315068493150683</v>
       </c>
       <c r="K52" s="2">
-        <v>141.47080028839221</v>
+        <v>155.60941095890411</v>
       </c>
       <c r="L52" s="2">
-        <v>0.56062378167641314</v>
+        <v>0.7517568518518517</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B53" s="1">
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2548,30 +2543,30 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.48</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I53">
-        <v>5.2631578947368425</v>
+        <v>10.9</v>
       </c>
       <c r="J53">
-        <v>47.342465753424655</v>
+        <v>57.205479452054789</v>
       </c>
       <c r="K53" s="2">
-        <v>155.09733237202596</v>
+        <v>174.34087671232876</v>
       </c>
       <c r="L53" s="2">
-        <v>0.55862573099415214</v>
+        <v>0.75373388888888893</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1">
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2586,30 +2581,30 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.30499999999999999</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="I54">
-        <v>11.111111111111112</v>
+        <v>10.9</v>
       </c>
       <c r="J54">
-        <v>15.041095890410958</v>
+        <v>23.794520547945204</v>
       </c>
       <c r="K54" s="2">
-        <v>127.82343987823441</v>
+        <v>137.28812328767123</v>
       </c>
       <c r="L54" s="2">
-        <v>0.56419753086419777</v>
+        <v>0.75612027777777735</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2624,30 +2619,30 @@
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.37</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I55">
-        <v>11.111111111111112</v>
+        <v>10.9</v>
       </c>
       <c r="J55">
-        <v>27.36986301369863</v>
+        <v>40.315068493150683</v>
       </c>
       <c r="K55" s="2">
-        <v>141.52207001522072</v>
+        <v>155.60941095890411</v>
       </c>
       <c r="L55" s="2">
-        <v>0.56131687242798389</v>
+        <v>0.7517568518518517</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B56" s="1">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2662,138 +2657,138 @@
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.40500000000000003</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I56">
-        <v>11.111111111111112</v>
+        <v>10.9</v>
       </c>
       <c r="J56">
-        <v>39.945205479452056</v>
+        <v>57.205479452054789</v>
       </c>
       <c r="K56" s="2">
-        <v>155.49467275494675</v>
+        <v>174.34087671232876</v>
       </c>
       <c r="L56" s="2">
-        <v>0.56265432098765455</v>
+        <v>0.75373388888888893</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B57" s="1">
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>10.9</v>
+        <v>11.785016578546461</v>
       </c>
       <c r="J57">
-        <v>20.958904109589042</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2">
-        <v>134.14342465753427</v>
+        <v>111.78501657854648</v>
       </c>
       <c r="L57" s="2">
-        <v>0.69235277777777804</v>
+        <v>0.71692184186157693</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>10.9</v>
+        <v>16.168366117124744</v>
       </c>
       <c r="J58">
-        <v>36.246575342465754</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2">
-        <v>151.09745205479453</v>
+        <v>116.16836611712475</v>
       </c>
       <c r="L58" s="2">
-        <v>0.6907618518518519</v>
+        <v>0.65571707030561499</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B59" s="1">
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>10.9</v>
+        <v>20.559241014822881</v>
       </c>
       <c r="J59">
-        <v>52.273972602739725</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2">
-        <v>168.87183561643837</v>
+        <v>120.55924101482289</v>
       </c>
       <c r="L59" s="2">
-        <v>0.69828388888888904</v>
+        <v>0.62534358086752961</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B60" s="1">
         <v>100</v>
@@ -2802,36 +2797,36 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.42499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>10.9</v>
+        <v>11.604317750144544</v>
       </c>
       <c r="J60">
-        <v>20.958904109589042</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2">
-        <v>134.14342465753427</v>
+        <v>111.60431775014455</v>
       </c>
       <c r="L60" s="2">
-        <v>0.69235277777777804</v>
+        <v>0.70592932980045975</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B61" s="1">
         <v>100</v>
@@ -2840,36 +2835,36 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>10.9</v>
+        <v>16.448677843785603</v>
       </c>
       <c r="J61">
-        <v>36.246575342465754</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
-        <v>151.09745205479453</v>
+        <v>116.4486778437856</v>
       </c>
       <c r="L61" s="2">
-        <v>0.6907618518518519</v>
+        <v>0.66708526810908308</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B62" s="1">
         <v>100</v>
@@ -2878,31 +2873,31 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62">
-        <v>360</v>
+        <v>120</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>10.9</v>
+        <v>21.736832077229231</v>
       </c>
       <c r="J62">
-        <v>52.273972602739725</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2">
-        <v>168.87183561643837</v>
+        <v>121.73683207722922</v>
       </c>
       <c r="L62" s="2">
-        <v>0.69828388888888904</v>
+        <v>0.66116197568238899</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2913,7 +2908,7 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -2922,7 +2917,7 @@
         <v>14</v>
       </c>
       <c r="F63">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -2931,16 +2926,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>11.785016578546461</v>
+        <v>27.532692234359345</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>111.78501657854648</v>
+        <v>127.53269223435935</v>
       </c>
       <c r="L63" s="2">
-        <v>0.71692184186157693</v>
+        <v>0.66996217770274413</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2951,7 +2946,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
@@ -2960,7 +2955,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -2969,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>16.168366117124744</v>
+        <v>33.913061020568385</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>116.16836611712475</v>
+        <v>133.91306102056839</v>
       </c>
       <c r="L64" s="2">
-        <v>0.65571707030561499</v>
+        <v>0.68768151513930342</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2989,7 +2984,7 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -2998,7 +2993,7 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3007,16 +3002,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>20.559241014822881</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>120.55924101482289</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="L65" s="2">
-        <v>0.62534358086752961</v>
+        <v>0.54750000000000054</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3027,7 +3022,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3036,7 +3031,7 @@
         <v>14</v>
       </c>
       <c r="F66">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -3045,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>11.604317750144544</v>
+        <v>12</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>111.60431775014455</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L66" s="2">
-        <v>0.70592932980045975</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3065,7 +3060,7 @@
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3074,7 +3069,7 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -3083,16 +3078,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>16.448677843785603</v>
+        <v>16</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>116.4486778437856</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L67" s="2">
-        <v>0.66708526810908308</v>
+        <v>0.48666666666666641</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3103,34 +3098,34 @@
         <v>100</v>
       </c>
       <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>19</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>150</v>
+      </c>
+      <c r="G68" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>20</v>
       </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-      <c r="F68">
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68" s="2">
         <v>120</v>
       </c>
-      <c r="G68" t="s">
-        <v>16</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>21.736832077229231</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68" s="2">
-        <v>121.73683207722922</v>
-      </c>
       <c r="L68" s="2">
-        <v>0.66116197568238899</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3141,7 +3136,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3150,7 +3145,7 @@
         <v>14</v>
       </c>
       <c r="F69">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -3159,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>27.532692234359345</v>
+        <v>24</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>127.53269223435935</v>
+        <v>124</v>
       </c>
       <c r="L69" s="2">
-        <v>0.66996217770274413</v>
+        <v>0.48666666666666664</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3179,7 +3174,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -3188,7 +3183,7 @@
         <v>14</v>
       </c>
       <c r="F70">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -3197,16 +3192,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>33.913061020568385</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>133.91306102056839</v>
+        <v>107</v>
       </c>
       <c r="L70" s="2">
-        <v>0.68768151513930342</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3217,7 +3212,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3226,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="F71">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -3235,16 +3230,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>109.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L71" s="2">
-        <v>0.54750000000000054</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3255,7 +3250,7 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -3264,7 +3259,7 @@
         <v>14</v>
       </c>
       <c r="F72">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3273,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>112.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3293,7 +3288,7 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -3302,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="F73">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3311,16 +3306,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>115.99999999999999</v>
+        <v>117</v>
       </c>
       <c r="L73" s="2">
-        <v>0.48666666666666641</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3331,7 +3326,7 @@
         <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -3340,7 +3335,7 @@
         <v>14</v>
       </c>
       <c r="F74">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -3358,7 +3353,7 @@
         <v>120</v>
       </c>
       <c r="L74" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3369,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3378,7 +3373,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -3387,16 +3382,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>24</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L75" s="2">
-        <v>0.48666666666666664</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3407,7 +3402,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -3416,7 +3411,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -3425,16 +3420,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L76" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3445,7 +3440,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -3454,7 +3449,7 @@
         <v>14</v>
       </c>
       <c r="F77">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -3463,16 +3458,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3483,7 +3478,7 @@
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -3492,7 +3487,7 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -3501,16 +3496,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L78" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3521,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3530,7 +3525,7 @@
         <v>14</v>
       </c>
       <c r="F79">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -3539,16 +3534,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L79" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3559,7 +3554,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -3568,7 +3563,7 @@
         <v>14</v>
       </c>
       <c r="F80">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -3577,16 +3572,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L80" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3597,7 +3592,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3606,7 +3601,7 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -3615,16 +3610,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L81" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3635,7 +3630,7 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
         <v>19</v>
@@ -3644,7 +3639,7 @@
         <v>14</v>
       </c>
       <c r="F82">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -3653,16 +3648,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3673,7 +3668,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -3682,7 +3677,7 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -3691,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L83" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3711,7 +3706,7 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -3720,7 +3715,7 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -3729,16 +3724,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L84" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3749,7 +3744,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3758,7 +3753,7 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -3767,16 +3762,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>20</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L85" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3787,7 +3782,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -3796,7 +3791,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -3805,16 +3800,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L86" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3825,7 +3820,7 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -3834,7 +3829,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -3843,16 +3838,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3863,7 +3858,7 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
@@ -3872,7 +3867,7 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -3881,16 +3876,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L88" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3901,7 +3896,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -3910,7 +3905,7 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -3919,16 +3914,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L89" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3939,7 +3934,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -3948,7 +3943,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -3957,16 +3952,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>20</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L90" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3977,7 +3972,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -3986,7 +3981,7 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -3995,16 +3990,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L91" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4015,7 +4010,7 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
@@ -4024,7 +4019,7 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -4033,16 +4028,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L92" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4053,7 +4048,7 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -4062,7 +4057,7 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4071,16 +4066,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L93" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4091,7 +4086,7 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
@@ -4100,7 +4095,7 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G94" t="s">
         <v>16</v>
@@ -4109,16 +4104,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L94" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4129,7 +4124,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4138,7 +4133,7 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4147,16 +4142,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>20</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L95" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4167,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -4176,7 +4171,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
@@ -4185,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L96" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4205,7 +4200,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -4214,7 +4209,7 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4223,16 +4218,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L97" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4243,34 +4238,34 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
+        <v>25</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>150</v>
+      </c>
+      <c r="G98" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
         <v>17</v>
       </c>
-      <c r="D98" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" t="s">
-        <v>14</v>
-      </c>
-      <c r="F98">
-        <v>120</v>
-      </c>
-      <c r="G98" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="I98">
-        <v>14.000000000000002</v>
-      </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L98" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4281,7 +4276,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -4290,7 +4285,7 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
@@ -4299,16 +4294,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L99" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4319,7 +4314,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -4328,7 +4323,7 @@
         <v>14</v>
       </c>
       <c r="F100">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -4337,16 +4332,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>20</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="L100" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4357,7 +4352,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -4366,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="F101">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -4375,16 +4370,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L101" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4395,7 +4390,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -4404,7 +4399,7 @@
         <v>14</v>
       </c>
       <c r="F102">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
@@ -4413,16 +4408,16 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L102" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4433,7 +4428,7 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -4442,7 +4437,7 @@
         <v>14</v>
       </c>
       <c r="F103">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
@@ -4451,16 +4446,16 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>14.000000000000002</v>
+        <v>17</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" s="2">
-        <v>114.00000000000001</v>
+        <v>117</v>
       </c>
       <c r="L103" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4471,7 +4466,7 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -4480,7 +4475,7 @@
         <v>14</v>
       </c>
       <c r="F104">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
@@ -4489,16 +4484,16 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L104" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4509,34 +4504,34 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F105">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>0.58102592592592583</v>
       </c>
       <c r="I105">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>9.5511111111111102</v>
       </c>
       <c r="K105" s="2">
-        <v>120</v>
+        <v>111.74213333333333</v>
       </c>
       <c r="L105" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.7143131111111114</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4547,34 +4542,34 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F106">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>0.5946862386831272</v>
       </c>
       <c r="I106">
-        <v>7.0000000000000009</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>14.663496296296286</v>
       </c>
       <c r="K106" s="2">
-        <v>107</v>
+        <v>116.95676622222221</v>
       </c>
       <c r="L106" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.68769107456790113</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4585,34 +4580,34 @@
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F107">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>0.63828713597506948</v>
       </c>
       <c r="I107">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>31.477173828907535</v>
       </c>
       <c r="K107" s="2">
-        <v>110.00000000000001</v>
+        <v>134.10671730548569</v>
       </c>
       <c r="L107" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.69160843425012641</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4623,34 +4618,34 @@
         <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F108">
-        <v>120</v>
+        <v>270</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>0.76034146928373181</v>
       </c>
       <c r="I108">
-        <v>14.000000000000002</v>
+        <v>2</v>
       </c>
       <c r="J108">
-        <v>0</v>
+        <v>56.244437453865089</v>
       </c>
       <c r="K108" s="2">
-        <v>114.00000000000001</v>
+        <v>159.3693262029424</v>
       </c>
       <c r="L108" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.80258533570644353</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4661,34 +4656,34 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F109">
-        <v>150</v>
+        <v>360</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>0.82432672201074875</v>
       </c>
       <c r="I109">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>81.303457513388906</v>
       </c>
       <c r="K109" s="2">
-        <v>117</v>
+        <v>184.92952666365667</v>
       </c>
       <c r="L109" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.86109103422874123</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4699,34 +4694,34 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F110">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="I110">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J110">
-        <v>0</v>
+        <v>12.657534246575342</v>
       </c>
       <c r="K110" s="2">
-        <v>120</v>
+        <v>114.91068493150685</v>
       </c>
       <c r="L110" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.90706666666666647</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4737,7 +4732,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -4746,25 +4741,25 @@
         <v>27</v>
       </c>
       <c r="F111">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.39137800925925947</v>
+        <v>0.77</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>6.4336111111111149</v>
+        <v>18.986301369863014</v>
       </c>
       <c r="K111" s="2">
-        <v>108.56228333333334</v>
+        <v>121.36602739726027</v>
       </c>
       <c r="L111" s="2">
-        <v>0.520872236111111</v>
+        <v>0.86651111111111134</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4775,7 +4770,7 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -4784,25 +4779,25 @@
         <v>27</v>
       </c>
       <c r="F112">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.39760702340535009</v>
+        <v>0.77</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>9.804008796296305</v>
+        <v>37.972602739726028</v>
       </c>
       <c r="K112" s="2">
-        <v>112.00008897222223</v>
+        <v>140.73205479452054</v>
       </c>
       <c r="L112" s="2">
-        <v>0.48667027498456789</v>
+        <v>0.82595555555555522</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4813,7 +4808,7 @@
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -4822,25 +4817,25 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.41709773718002596</v>
+        <v>0.77</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>20.569203477371147</v>
+        <v>56.958904109589035</v>
       </c>
       <c r="K113" s="2">
-        <v>122.98058754691857</v>
+        <v>160.0980821917808</v>
       </c>
       <c r="L113" s="2">
-        <v>0.46599524747918197</v>
+        <v>0.81243703703703696</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4851,7 +4846,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4860,25 +4855,25 @@
         <v>27</v>
       </c>
       <c r="F114">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.50397751875154939</v>
+        <v>0.77</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>37.280528784361188</v>
+        <v>75.945205479452056</v>
       </c>
       <c r="K114" s="2">
-        <v>140.0261393600484</v>
+        <v>179.4641095890411</v>
       </c>
       <c r="L114" s="2">
-        <v>0.54109410616361719</v>
+        <v>0.80567777777777783</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4889,7 +4884,7 @@
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4898,25 +4893,25 @@
         <v>27</v>
       </c>
       <c r="F115">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.53303503052700441</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>52.573318079375774</v>
+        <v>9.2054794520547958</v>
       </c>
       <c r="K115" s="2">
-        <v>155.62478444096328</v>
+        <v>111.38958904109589</v>
       </c>
       <c r="L115" s="2">
-        <v>0.56397350891532216</v>
+        <v>0.69286666666666619</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4927,7 +4922,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4936,7 +4931,7 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
@@ -4948,13 +4943,13 @@
         <v>2</v>
       </c>
       <c r="J116">
-        <v>9.2054794520547958</v>
+        <v>13.808219178082194</v>
       </c>
       <c r="K116" s="2">
-        <v>111.38958904109589</v>
+        <v>116.08438356164383</v>
       </c>
       <c r="L116" s="2">
-        <v>0.69286666666666619</v>
+        <v>0.65231111111111095</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4965,7 +4960,7 @@
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -4974,7 +4969,7 @@
         <v>27</v>
       </c>
       <c r="F117">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
@@ -4986,13 +4981,13 @@
         <v>2</v>
       </c>
       <c r="J117">
-        <v>13.808219178082194</v>
+        <v>27.616438356164387</v>
       </c>
       <c r="K117" s="2">
-        <v>116.08438356164383</v>
+        <v>130.16876712328767</v>
       </c>
       <c r="L117" s="2">
-        <v>0.65231111111111095</v>
+        <v>0.6117555555555555</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -5003,7 +4998,7 @@
         <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -5012,7 +5007,7 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
@@ -5024,13 +5019,13 @@
         <v>2</v>
       </c>
       <c r="J118">
-        <v>27.616438356164387</v>
+        <v>41.424657534246577</v>
       </c>
       <c r="K118" s="2">
-        <v>130.16876712328767</v>
+        <v>144.25315068493151</v>
       </c>
       <c r="L118" s="2">
-        <v>0.6117555555555555</v>
+        <v>0.59823703703703723</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5041,7 +5036,7 @@
         <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -5050,7 +5045,7 @@
         <v>27</v>
       </c>
       <c r="F119">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
@@ -5062,13 +5057,13 @@
         <v>2</v>
       </c>
       <c r="J119">
-        <v>41.424657534246577</v>
+        <v>55.232876712328775</v>
       </c>
       <c r="K119" s="2">
-        <v>144.25315068493151</v>
+        <v>158.33753424657536</v>
       </c>
       <c r="L119" s="2">
-        <v>0.59823703703703723</v>
+        <v>0.59147777777777788</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5079,7 +5074,7 @@
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -5088,25 +5083,25 @@
         <v>27</v>
       </c>
       <c r="F120">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.56000000000000005</v>
+        <v>0.74</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>55.232876712328775</v>
+        <v>12.164383561643836</v>
       </c>
       <c r="K120" s="2">
-        <v>158.33753424657536</v>
+        <v>114.40767123287672</v>
       </c>
       <c r="L120" s="2">
-        <v>0.59147777777777788</v>
+        <v>0.87646666666666695</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5117,7 +5112,7 @@
         <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -5126,25 +5121,25 @@
         <v>27</v>
       </c>
       <c r="F121">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
       </c>
       <c r="H121">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>6.9041095890410951</v>
+        <v>18.246575342465754</v>
       </c>
       <c r="K121" s="2">
-        <v>109.04219178082191</v>
+        <v>120.61150684931506</v>
       </c>
       <c r="L121" s="2">
-        <v>0.55006666666666593</v>
+        <v>0.83591111111111061</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5155,7 +5150,7 @@
         <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D122" t="s">
         <v>19</v>
@@ -5164,25 +5159,25 @@
         <v>27</v>
       </c>
       <c r="F122">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G122" t="s">
         <v>16</v>
       </c>
       <c r="H122">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>10.356164383561643</v>
+        <v>36.493150684931507</v>
       </c>
       <c r="K122" s="2">
-        <v>112.56328767123287</v>
+        <v>139.22301369863013</v>
       </c>
       <c r="L122" s="2">
-        <v>0.50951111111111091</v>
+        <v>0.79535555555555537</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5193,7 +5188,7 @@
         <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -5202,25 +5197,25 @@
         <v>27</v>
       </c>
       <c r="F123">
-        <v>180</v>
+        <v>270</v>
       </c>
       <c r="G123" t="s">
         <v>16</v>
       </c>
       <c r="H123">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>20.712328767123285</v>
+        <v>54.739726027397261</v>
       </c>
       <c r="K123" s="2">
-        <v>123.12657534246574</v>
+        <v>157.83452054794523</v>
       </c>
       <c r="L123" s="2">
-        <v>0.46895555555555524</v>
+        <v>0.78183703703703733</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5231,7 +5226,7 @@
         <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -5240,253 +5235,25 @@
         <v>27</v>
       </c>
       <c r="F124">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
       </c>
       <c r="H124">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>31.06849315068493</v>
+        <v>72.986301369863014</v>
       </c>
       <c r="K124" s="2">
-        <v>133.68986301369861</v>
+        <v>176.44602739726028</v>
       </c>
       <c r="L124" s="2">
-        <v>0.45543703703703675</v>
-      </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>33</v>
-      </c>
-      <c r="B125" s="1">
-        <v>100</v>
-      </c>
-      <c r="C125" t="s">
-        <v>28</v>
-      </c>
-      <c r="D125" t="s">
-        <v>19</v>
-      </c>
-      <c r="E125" t="s">
-        <v>27</v>
-      </c>
-      <c r="F125">
-        <v>360</v>
-      </c>
-      <c r="G125" t="s">
-        <v>16</v>
-      </c>
-      <c r="H125">
-        <v>0.42</v>
-      </c>
-      <c r="I125">
-        <v>2</v>
-      </c>
-      <c r="J125">
-        <v>41.42465753424657</v>
-      </c>
-      <c r="K125" s="2">
-        <v>144.25315068493151</v>
-      </c>
-      <c r="L125" s="2">
-        <v>0.4486777777777779</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>33</v>
-      </c>
-      <c r="B126" s="1">
-        <v>100</v>
-      </c>
-      <c r="C126" t="s">
-        <v>29</v>
-      </c>
-      <c r="D126" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" t="s">
-        <v>27</v>
-      </c>
-      <c r="F126">
-        <v>60</v>
-      </c>
-      <c r="G126" t="s">
-        <v>16</v>
-      </c>
-      <c r="H126">
-        <v>0.47</v>
-      </c>
-      <c r="I126">
-        <v>2</v>
-      </c>
-      <c r="J126">
-        <v>7.7260273972602738</v>
-      </c>
-      <c r="K126" s="2">
-        <v>109.88054794520548</v>
-      </c>
-      <c r="L126" s="2">
-        <v>0.60106666666666642</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>33</v>
-      </c>
-      <c r="B127" s="1">
-        <v>100</v>
-      </c>
-      <c r="C127" t="s">
-        <v>29</v>
-      </c>
-      <c r="D127" t="s">
-        <v>19</v>
-      </c>
-      <c r="E127" t="s">
-        <v>27</v>
-      </c>
-      <c r="F127">
-        <v>90</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
-      </c>
-      <c r="H127">
-        <v>0.47</v>
-      </c>
-      <c r="I127">
-        <v>2</v>
-      </c>
-      <c r="J127">
-        <v>11.58904109589041</v>
-      </c>
-      <c r="K127" s="2">
-        <v>113.82082191780822</v>
-      </c>
-      <c r="L127" s="2">
-        <v>0.56051111111111129</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>33</v>
-      </c>
-      <c r="B128" s="1">
-        <v>100</v>
-      </c>
-      <c r="C128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D128" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" t="s">
-        <v>27</v>
-      </c>
-      <c r="F128">
-        <v>180</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128">
-        <v>0.47</v>
-      </c>
-      <c r="I128">
-        <v>2</v>
-      </c>
-      <c r="J128">
-        <v>23.17808219178082</v>
-      </c>
-      <c r="K128" s="2">
-        <v>125.64164383561643</v>
-      </c>
-      <c r="L128" s="2">
-        <v>0.51995555555555573</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>33</v>
-      </c>
-      <c r="B129" s="1">
-        <v>100</v>
-      </c>
-      <c r="C129" t="s">
-        <v>29</v>
-      </c>
-      <c r="D129" t="s">
-        <v>19</v>
-      </c>
-      <c r="E129" t="s">
-        <v>27</v>
-      </c>
-      <c r="F129">
-        <v>270</v>
-      </c>
-      <c r="G129" t="s">
-        <v>16</v>
-      </c>
-      <c r="H129">
-        <v>0.47</v>
-      </c>
-      <c r="I129">
-        <v>2</v>
-      </c>
-      <c r="J129">
-        <v>34.767123287671232</v>
-      </c>
-      <c r="K129" s="2">
-        <v>137.46246575342465</v>
-      </c>
-      <c r="L129" s="2">
-        <v>0.50643703703703691</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>33</v>
-      </c>
-      <c r="B130" s="1">
-        <v>100</v>
-      </c>
-      <c r="C130" t="s">
-        <v>29</v>
-      </c>
-      <c r="D130" t="s">
-        <v>19</v>
-      </c>
-      <c r="E130" t="s">
-        <v>27</v>
-      </c>
-      <c r="F130">
-        <v>360</v>
-      </c>
-      <c r="G130" t="s">
-        <v>16</v>
-      </c>
-      <c r="H130">
-        <v>0.47</v>
-      </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
-      <c r="J130">
-        <v>46.356164383561641</v>
-      </c>
-      <c r="K130" s="2">
-        <v>149.28328767123287</v>
-      </c>
-      <c r="L130" s="2">
-        <v>0.49967777777777767</v>
+        <v>0.77507777777777775</v>
       </c>
     </row>
   </sheetData>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F40338-C86D-468E-8423-7D5F79676672}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D8A36-D737-4457-B579-AA63D253311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="39">
   <si>
     <t>Precio de contado</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Tipo de Empresa</t>
+  </si>
+  <si>
+    <t>PROCAMPO DIGITAL - Promo 1</t>
+  </si>
+  <si>
+    <t>PROCAMPO DIGITAL - Promo 2</t>
   </si>
 </sst>
 </file>
@@ -532,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F38534-621C-456A-88D0-E73BF73C904A}">
-  <dimension ref="A1:L124"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:L130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,16 +1222,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>105</v>
+        <v>105.4</v>
       </c>
       <c r="L18" s="2">
-        <v>0.10138888888888899</v>
+        <v>0.10950000000000008</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1254,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>107.60000000000001</v>
+        <v>108.1</v>
       </c>
       <c r="L19" s="2">
-        <v>0.10274074074074083</v>
+        <v>0.10949999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1292,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.600000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>111.60000000000001</v>
+        <v>112.1</v>
       </c>
       <c r="L20" s="2">
-        <v>0.11761111111111121</v>
+        <v>0.12268055555555554</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1327,19 +1333,19 @@
         <v>13</v>
       </c>
       <c r="H21">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>10.356164383561643</v>
+        <v>10.849315068493151</v>
       </c>
       <c r="K21" s="2">
-        <v>111.45972602739725</v>
+        <v>111.95780821917809</v>
       </c>
       <c r="L21" s="2">
-        <v>0.11618888888888872</v>
+        <v>0.12123888888888898</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -2446,13 +2452,13 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B51" s="1">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D51" t="s">
         <v>11</v>
@@ -2467,30 +2473,30 @@
         <v>16</v>
       </c>
       <c r="H51">
-        <v>0.48249999999999998</v>
+        <v>0.435</v>
       </c>
       <c r="I51">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>23.794520547945204</v>
+        <v>21.452054794520549</v>
       </c>
       <c r="K51" s="2">
-        <v>137.28812328767123</v>
+        <v>121.45205479452055</v>
       </c>
       <c r="L51" s="2">
-        <v>0.75612027777777735</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B52" s="1">
         <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
@@ -2505,30 +2511,30 @@
         <v>16</v>
       </c>
       <c r="H52">
-        <v>0.54500000000000004</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="I52">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="J52">
-        <v>40.315068493150683</v>
+        <v>34.397260273972606</v>
       </c>
       <c r="K52" s="2">
-        <v>155.60941095890411</v>
+        <v>134.39726027397262</v>
       </c>
       <c r="L52" s="2">
-        <v>0.7517568518518517</v>
+        <v>0.46500000000000036</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B53" s="1">
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D53" t="s">
         <v>11</v>
@@ -2543,30 +2549,30 @@
         <v>16</v>
       </c>
       <c r="H53">
-        <v>0.57999999999999996</v>
+        <v>0.48</v>
       </c>
       <c r="I53">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="J53">
-        <v>57.205479452054789</v>
+        <v>47.342465753424655</v>
       </c>
       <c r="K53" s="2">
-        <v>174.34087671232876</v>
+        <v>147.34246575342468</v>
       </c>
       <c r="L53" s="2">
-        <v>0.75373388888888893</v>
+        <v>0.48000000000000009</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B54" s="1">
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D54" t="s">
         <v>11</v>
@@ -2581,30 +2587,30 @@
         <v>16</v>
       </c>
       <c r="H54">
-        <v>0.48249999999999998</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I54">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>23.794520547945204</v>
+        <v>15.041095890410958</v>
       </c>
       <c r="K54" s="2">
-        <v>137.28812328767123</v>
+        <v>115.04109589041096</v>
       </c>
       <c r="L54" s="2">
-        <v>0.75612027777777735</v>
+        <v>0.30500000000000005</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B55" s="1">
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D55" t="s">
         <v>11</v>
@@ -2619,30 +2625,30 @@
         <v>16</v>
       </c>
       <c r="H55">
-        <v>0.54500000000000004</v>
+        <v>0.37</v>
       </c>
       <c r="I55">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="J55">
-        <v>40.315068493150683</v>
+        <v>27.36986301369863</v>
       </c>
       <c r="K55" s="2">
-        <v>155.60941095890411</v>
+        <v>127.36986301369863</v>
       </c>
       <c r="L55" s="2">
-        <v>0.7517568518518517</v>
+        <v>0.37000000000000011</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B56" s="1">
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D56" t="s">
         <v>11</v>
@@ -2657,138 +2663,138 @@
         <v>16</v>
       </c>
       <c r="H56">
-        <v>0.57999999999999996</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="I56">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>57.205479452054789</v>
+        <v>39.945205479452056</v>
       </c>
       <c r="K56" s="2">
-        <v>174.34087671232876</v>
+        <v>139.94520547945206</v>
       </c>
       <c r="L56" s="2">
-        <v>0.75373388888888893</v>
+        <v>0.40500000000000008</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B57" s="1">
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G57" t="s">
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="I57">
-        <v>11.785016578546461</v>
+        <v>10.9</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>23.794520547945204</v>
       </c>
       <c r="K57" s="2">
-        <v>111.78501657854648</v>
+        <v>137.28812328767123</v>
       </c>
       <c r="L57" s="2">
-        <v>0.71692184186157693</v>
+        <v>0.75612027777777735</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B58" s="1">
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G58" t="s">
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I58">
-        <v>16.168366117124744</v>
+        <v>10.9</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>40.315068493150683</v>
       </c>
       <c r="K58" s="2">
-        <v>116.16836611712475</v>
+        <v>155.60941095890411</v>
       </c>
       <c r="L58" s="2">
-        <v>0.65571707030561499</v>
+        <v>0.7517568518518517</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B59" s="1">
         <v>100</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F59">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="G59" t="s">
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I59">
-        <v>20.559241014822881</v>
+        <v>10.9</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>57.205479452054789</v>
       </c>
       <c r="K59" s="2">
-        <v>120.55924101482289</v>
+        <v>174.34087671232876</v>
       </c>
       <c r="L59" s="2">
-        <v>0.62534358086752961</v>
+        <v>0.75373388888888893</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B60" s="1">
         <v>100</v>
@@ -2797,36 +2803,36 @@
         <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F60">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G60" t="s">
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.48249999999999998</v>
       </c>
       <c r="I60">
-        <v>11.604317750144544</v>
+        <v>10.9</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>23.794520547945204</v>
       </c>
       <c r="K60" s="2">
-        <v>111.60431775014455</v>
+        <v>137.28812328767123</v>
       </c>
       <c r="L60" s="2">
-        <v>0.70592932980045975</v>
+        <v>0.75612027777777735</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B61" s="1">
         <v>100</v>
@@ -2835,36 +2841,36 @@
         <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F61">
-        <v>90</v>
+        <v>270</v>
       </c>
       <c r="G61" t="s">
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="I61">
-        <v>16.448677843785603</v>
+        <v>10.9</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>40.315068493150683</v>
       </c>
       <c r="K61" s="2">
-        <v>116.4486778437856</v>
+        <v>155.60941095890411</v>
       </c>
       <c r="L61" s="2">
-        <v>0.66708526810908308</v>
+        <v>0.7517568518518517</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B62" s="1">
         <v>100</v>
@@ -2873,31 +2879,31 @@
         <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F62">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="G62" t="s">
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I62">
-        <v>21.736832077229231</v>
+        <v>10.9</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>57.205479452054789</v>
       </c>
       <c r="K62" s="2">
-        <v>121.73683207722922</v>
+        <v>174.34087671232876</v>
       </c>
       <c r="L62" s="2">
-        <v>0.66116197568238899</v>
+        <v>0.75373388888888893</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2908,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="C63" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D63" t="s">
         <v>19</v>
@@ -2917,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="F63">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
         <v>16</v>
@@ -2926,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>27.532692234359345</v>
+        <v>11.785016578546461</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>127.53269223435935</v>
+        <v>111.78501657854648</v>
       </c>
       <c r="L63" s="2">
-        <v>0.66996217770274413</v>
+        <v>0.71692184186157693</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2946,7 +2952,7 @@
         <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D64" t="s">
         <v>19</v>
@@ -2955,7 +2961,7 @@
         <v>14</v>
       </c>
       <c r="F64">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G64" t="s">
         <v>16</v>
@@ -2964,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>33.913061020568385</v>
+        <v>16.168366117124744</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>133.91306102056839</v>
+        <v>116.16836611712475</v>
       </c>
       <c r="L64" s="2">
-        <v>0.68768151513930342</v>
+        <v>0.65571707030561499</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -2984,7 +2990,7 @@
         <v>100</v>
       </c>
       <c r="C65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D65" t="s">
         <v>19</v>
@@ -2993,7 +2999,7 @@
         <v>14</v>
       </c>
       <c r="F65">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G65" t="s">
         <v>16</v>
@@ -3002,16 +3008,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>9</v>
+        <v>20.559241014822881</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>109.00000000000001</v>
+        <v>120.55924101482289</v>
       </c>
       <c r="L65" s="2">
-        <v>0.54750000000000054</v>
+        <v>0.62534358086752961</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3022,7 +3028,7 @@
         <v>100</v>
       </c>
       <c r="C66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D66" t="s">
         <v>19</v>
@@ -3031,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="F66">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G66" t="s">
         <v>16</v>
@@ -3040,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>12</v>
+        <v>11.604317750144544</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>112.00000000000001</v>
+        <v>111.60431775014455</v>
       </c>
       <c r="L66" s="2">
-        <v>0.48666666666666714</v>
+        <v>0.70592932980045975</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3060,7 +3066,7 @@
         <v>100</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>19</v>
@@ -3069,7 +3075,7 @@
         <v>14</v>
       </c>
       <c r="F67">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G67" t="s">
         <v>16</v>
@@ -3078,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>16</v>
+        <v>16.448677843785603</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>115.99999999999999</v>
+        <v>116.4486778437856</v>
       </c>
       <c r="L67" s="2">
-        <v>0.48666666666666641</v>
+        <v>0.66708526810908308</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3098,7 +3104,7 @@
         <v>100</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
         <v>19</v>
@@ -3107,7 +3113,7 @@
         <v>14</v>
       </c>
       <c r="F68">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G68" t="s">
         <v>16</v>
@@ -3116,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>20</v>
+        <v>21.736832077229231</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>120</v>
+        <v>121.73683207722922</v>
       </c>
       <c r="L68" s="2">
-        <v>0.48666666666666658</v>
+        <v>0.66116197568238899</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3136,7 +3142,7 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>19</v>
@@ -3145,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="F69">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G69" t="s">
         <v>16</v>
@@ -3154,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>24</v>
+        <v>27.532692234359345</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>124</v>
+        <v>127.53269223435935</v>
       </c>
       <c r="L69" s="2">
-        <v>0.48666666666666664</v>
+        <v>0.66996217770274413</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3174,7 +3180,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
         <v>19</v>
@@ -3183,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="F70">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G70" t="s">
         <v>16</v>
@@ -3192,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>7.0000000000000009</v>
+        <v>33.913061020568385</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>107</v>
+        <v>133.91306102056839</v>
       </c>
       <c r="L70" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.68768151513930342</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3212,7 +3218,7 @@
         <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
         <v>19</v>
@@ -3221,7 +3227,7 @@
         <v>14</v>
       </c>
       <c r="F71">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>16</v>
@@ -3230,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>110.00000000000001</v>
+        <v>109.00000000000001</v>
       </c>
       <c r="L71" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.54750000000000054</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3250,7 +3256,7 @@
         <v>100</v>
       </c>
       <c r="C72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" t="s">
         <v>19</v>
@@ -3259,7 +3265,7 @@
         <v>14</v>
       </c>
       <c r="F72">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G72" t="s">
         <v>16</v>
@@ -3268,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>14.000000000000002</v>
+        <v>12</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>114.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L72" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.48666666666666714</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3288,7 +3294,7 @@
         <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" t="s">
         <v>19</v>
@@ -3297,7 +3303,7 @@
         <v>14</v>
       </c>
       <c r="F73">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G73" t="s">
         <v>16</v>
@@ -3306,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>117</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L73" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.48666666666666641</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3326,7 +3332,7 @@
         <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>19</v>
@@ -3335,7 +3341,7 @@
         <v>14</v>
       </c>
       <c r="F74">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G74" t="s">
         <v>16</v>
@@ -3353,7 +3359,7 @@
         <v>120</v>
       </c>
       <c r="L74" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.48666666666666658</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3364,7 +3370,7 @@
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>19</v>
@@ -3373,7 +3379,7 @@
         <v>14</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G75" t="s">
         <v>16</v>
@@ -3382,16 +3388,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>7.0000000000000009</v>
+        <v>24</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="L75" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.48666666666666664</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3402,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D76" t="s">
         <v>19</v>
@@ -3411,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="F76">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G76" t="s">
         <v>16</v>
@@ -3420,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>110.00000000000001</v>
+        <v>107</v>
       </c>
       <c r="L76" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3440,7 +3446,7 @@
         <v>100</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
@@ -3449,7 +3455,7 @@
         <v>14</v>
       </c>
       <c r="F77">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G77" t="s">
         <v>16</v>
@@ -3458,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3478,7 +3484,7 @@
         <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
         <v>19</v>
@@ -3487,7 +3493,7 @@
         <v>14</v>
       </c>
       <c r="F78">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G78" t="s">
         <v>16</v>
@@ -3496,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L78" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3516,7 +3522,7 @@
         <v>100</v>
       </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
@@ -3525,7 +3531,7 @@
         <v>14</v>
       </c>
       <c r="F79">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G79" t="s">
         <v>16</v>
@@ -3534,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L79" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3554,7 +3560,7 @@
         <v>100</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D80" t="s">
         <v>19</v>
@@ -3563,7 +3569,7 @@
         <v>14</v>
       </c>
       <c r="F80">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G80" t="s">
         <v>16</v>
@@ -3572,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>7.0000000000000009</v>
+        <v>20</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L80" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3592,7 +3598,7 @@
         <v>100</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D81" t="s">
         <v>19</v>
@@ -3601,7 +3607,7 @@
         <v>14</v>
       </c>
       <c r="F81">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G81" t="s">
         <v>16</v>
@@ -3610,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>110.00000000000001</v>
+        <v>107</v>
       </c>
       <c r="L81" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3630,7 +3636,7 @@
         <v>100</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D82" t="s">
         <v>19</v>
@@ -3639,7 +3645,7 @@
         <v>14</v>
       </c>
       <c r="F82">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G82" t="s">
         <v>16</v>
@@ -3648,16 +3654,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3668,7 +3674,7 @@
         <v>100</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
@@ -3677,7 +3683,7 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G83" t="s">
         <v>16</v>
@@ -3686,16 +3692,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L83" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3706,7 +3712,7 @@
         <v>100</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
         <v>19</v>
@@ -3715,7 +3721,7 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G84" t="s">
         <v>16</v>
@@ -3724,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L84" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3744,7 +3750,7 @@
         <v>100</v>
       </c>
       <c r="C85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" t="s">
         <v>19</v>
@@ -3753,7 +3759,7 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
@@ -3762,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>7.0000000000000009</v>
+        <v>20</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L85" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3782,7 +3788,7 @@
         <v>100</v>
       </c>
       <c r="C86" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
         <v>19</v>
@@ -3791,7 +3797,7 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
@@ -3800,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>110.00000000000001</v>
+        <v>107</v>
       </c>
       <c r="L86" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3820,7 +3826,7 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
@@ -3829,7 +3835,7 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G87" t="s">
         <v>16</v>
@@ -3838,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3858,7 +3864,7 @@
         <v>100</v>
       </c>
       <c r="C88" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
@@ -3867,7 +3873,7 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G88" t="s">
         <v>16</v>
@@ -3876,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L88" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3896,7 +3902,7 @@
         <v>100</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
         <v>19</v>
@@ -3905,7 +3911,7 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
@@ -3914,16 +3920,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L89" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3934,7 +3940,7 @@
         <v>100</v>
       </c>
       <c r="C90" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
         <v>19</v>
@@ -3943,7 +3949,7 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
@@ -3952,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>7.0000000000000009</v>
+        <v>20</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L90" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3972,7 +3978,7 @@
         <v>100</v>
       </c>
       <c r="C91" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
@@ -3981,7 +3987,7 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
@@ -3990,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>110.00000000000001</v>
+        <v>107</v>
       </c>
       <c r="L91" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4010,7 +4016,7 @@
         <v>100</v>
       </c>
       <c r="C92" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
@@ -4019,7 +4025,7 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G92" t="s">
         <v>16</v>
@@ -4028,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L92" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4048,7 +4054,7 @@
         <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D93" t="s">
         <v>19</v>
@@ -4057,7 +4063,7 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
@@ -4066,16 +4072,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L93" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4086,34 +4092,34 @@
         <v>100</v>
       </c>
       <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>150</v>
+      </c>
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
         <v>17</v>
       </c>
-      <c r="D94" t="s">
-        <v>19</v>
-      </c>
-      <c r="E94" t="s">
-        <v>14</v>
-      </c>
-      <c r="F94">
-        <v>180</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="I94">
-        <v>20</v>
-      </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L94" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4124,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
@@ -4133,7 +4139,7 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G95" t="s">
         <v>16</v>
@@ -4142,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>7.0000000000000009</v>
+        <v>20</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L95" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4162,7 +4168,7 @@
         <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D96" t="s">
         <v>19</v>
@@ -4171,7 +4177,7 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G96" t="s">
         <v>16</v>
@@ -4180,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>110.00000000000001</v>
+        <v>107</v>
       </c>
       <c r="L96" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4200,7 +4206,7 @@
         <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D97" t="s">
         <v>19</v>
@@ -4209,7 +4215,7 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G97" t="s">
         <v>16</v>
@@ -4218,16 +4224,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L97" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4238,7 +4244,7 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D98" t="s">
         <v>19</v>
@@ -4247,7 +4253,7 @@
         <v>14</v>
       </c>
       <c r="F98">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G98" t="s">
         <v>16</v>
@@ -4256,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L98" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4276,7 +4282,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
@@ -4285,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G99" t="s">
         <v>16</v>
@@ -4294,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L99" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4314,7 +4320,7 @@
         <v>100</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D100" t="s">
         <v>19</v>
@@ -4323,7 +4329,7 @@
         <v>14</v>
       </c>
       <c r="F100">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G100" t="s">
         <v>16</v>
@@ -4332,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>7.0000000000000009</v>
+        <v>20</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L100" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4352,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
@@ -4361,7 +4367,7 @@
         <v>14</v>
       </c>
       <c r="F101">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G101" t="s">
         <v>16</v>
@@ -4370,16 +4376,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>110.00000000000001</v>
+        <v>107</v>
       </c>
       <c r="L101" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4390,7 +4396,7 @@
         <v>100</v>
       </c>
       <c r="C102" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
@@ -4399,7 +4405,7 @@
         <v>14</v>
       </c>
       <c r="F102">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G102" t="s">
         <v>16</v>
@@ -4408,16 +4414,16 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>14.000000000000002</v>
+        <v>10</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" s="2">
-        <v>114.00000000000001</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L102" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4428,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="C103" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
@@ -4437,7 +4443,7 @@
         <v>14</v>
       </c>
       <c r="F103">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="G103" t="s">
         <v>16</v>
@@ -4446,16 +4452,16 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>17</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" s="2">
-        <v>117</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L103" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4466,7 +4472,7 @@
         <v>100</v>
       </c>
       <c r="C104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -4475,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="F104">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
@@ -4484,16 +4490,16 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="L104" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4504,34 +4510,34 @@
         <v>100</v>
       </c>
       <c r="C105" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D105" t="s">
         <v>19</v>
       </c>
       <c r="E105" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F105">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G105" t="s">
         <v>16</v>
       </c>
       <c r="H105">
-        <v>0.58102592592592583</v>
+        <v>0</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J105">
-        <v>9.5511111111111102</v>
+        <v>0</v>
       </c>
       <c r="K105" s="2">
-        <v>111.74213333333333</v>
+        <v>120</v>
       </c>
       <c r="L105" s="2">
-        <v>0.7143131111111114</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4542,34 +4548,34 @@
         <v>100</v>
       </c>
       <c r="C106" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F106">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G106" t="s">
         <v>16</v>
       </c>
       <c r="H106">
-        <v>0.5946862386831272</v>
+        <v>0</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>7.0000000000000009</v>
       </c>
       <c r="J106">
-        <v>14.663496296296286</v>
+        <v>0</v>
       </c>
       <c r="K106" s="2">
-        <v>116.95676622222221</v>
+        <v>107</v>
       </c>
       <c r="L106" s="2">
-        <v>0.68769107456790113</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4580,34 +4586,34 @@
         <v>100</v>
       </c>
       <c r="C107" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
         <v>19</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G107" t="s">
         <v>16</v>
       </c>
       <c r="H107">
-        <v>0.63828713597506948</v>
+        <v>0</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J107">
-        <v>31.477173828907535</v>
+        <v>0</v>
       </c>
       <c r="K107" s="2">
-        <v>134.10671730548569</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L107" s="2">
-        <v>0.69160843425012641</v>
+        <v>0.40555555555555595</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4618,34 +4624,34 @@
         <v>100</v>
       </c>
       <c r="C108" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F108">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="G108" t="s">
         <v>16</v>
       </c>
       <c r="H108">
-        <v>0.76034146928373181</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J108">
-        <v>56.244437453865089</v>
+        <v>0</v>
       </c>
       <c r="K108" s="2">
-        <v>159.3693262029424</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L108" s="2">
-        <v>0.80258533570644353</v>
+        <v>0.42583333333333367</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4656,34 +4662,34 @@
         <v>100</v>
       </c>
       <c r="C109" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F109">
-        <v>360</v>
+        <v>150</v>
       </c>
       <c r="G109" t="s">
         <v>16</v>
       </c>
       <c r="H109">
-        <v>0.82432672201074875</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="J109">
-        <v>81.303457513388906</v>
+        <v>0</v>
       </c>
       <c r="K109" s="2">
-        <v>184.92952666365667</v>
+        <v>117</v>
       </c>
       <c r="L109" s="2">
-        <v>0.86109103422874123</v>
+        <v>0.41366666666666646</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4694,34 +4700,34 @@
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D110" t="s">
         <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F110">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="G110" t="s">
         <v>16</v>
       </c>
       <c r="H110">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J110">
-        <v>12.657534246575342</v>
+        <v>0</v>
       </c>
       <c r="K110" s="2">
-        <v>114.91068493150685</v>
+        <v>120</v>
       </c>
       <c r="L110" s="2">
-        <v>0.90706666666666647</v>
+        <v>0.4055555555555555</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4732,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D111" t="s">
         <v>19</v>
@@ -4741,25 +4747,25 @@
         <v>27</v>
       </c>
       <c r="F111">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G111" t="s">
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.77</v>
+        <v>0.58102592592592583</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>18.986301369863014</v>
+        <v>9.5511111111111102</v>
       </c>
       <c r="K111" s="2">
-        <v>121.36602739726027</v>
+        <v>111.74213333333333</v>
       </c>
       <c r="L111" s="2">
-        <v>0.86651111111111134</v>
+        <v>0.7143131111111114</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4770,7 +4776,7 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D112" t="s">
         <v>19</v>
@@ -4779,25 +4785,25 @@
         <v>27</v>
       </c>
       <c r="F112">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G112" t="s">
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.77</v>
+        <v>0.5946862386831272</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>37.972602739726028</v>
+        <v>14.663496296296286</v>
       </c>
       <c r="K112" s="2">
-        <v>140.73205479452054</v>
+        <v>116.95676622222221</v>
       </c>
       <c r="L112" s="2">
-        <v>0.82595555555555522</v>
+        <v>0.68769107456790113</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4808,7 +4814,7 @@
         <v>100</v>
       </c>
       <c r="C113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
@@ -4817,25 +4823,25 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G113" t="s">
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.77</v>
+        <v>0.63828713597506948</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>56.958904109589035</v>
+        <v>31.477173828907535</v>
       </c>
       <c r="K113" s="2">
-        <v>160.0980821917808</v>
+        <v>134.10671730548569</v>
       </c>
       <c r="L113" s="2">
-        <v>0.81243703703703696</v>
+        <v>0.69160843425012641</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4846,7 +4852,7 @@
         <v>100</v>
       </c>
       <c r="C114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
@@ -4855,25 +4861,25 @@
         <v>27</v>
       </c>
       <c r="F114">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G114" t="s">
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.77</v>
+        <v>0.76034146928373181</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>75.945205479452056</v>
+        <v>56.244437453865089</v>
       </c>
       <c r="K114" s="2">
-        <v>179.4641095890411</v>
+        <v>159.3693262029424</v>
       </c>
       <c r="L114" s="2">
-        <v>0.80567777777777783</v>
+        <v>0.80258533570644353</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4884,7 +4890,7 @@
         <v>100</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
@@ -4893,25 +4899,25 @@
         <v>27</v>
       </c>
       <c r="F115">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G115" t="s">
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.56000000000000005</v>
+        <v>0.82432672201074875</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>9.2054794520547958</v>
+        <v>81.303457513388906</v>
       </c>
       <c r="K115" s="2">
-        <v>111.38958904109589</v>
+        <v>184.92952666365667</v>
       </c>
       <c r="L115" s="2">
-        <v>0.69286666666666619</v>
+        <v>0.86109103422874123</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4922,7 +4928,7 @@
         <v>100</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
@@ -4931,25 +4937,25 @@
         <v>27</v>
       </c>
       <c r="F116">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G116" t="s">
         <v>16</v>
       </c>
       <c r="H116">
-        <v>0.56000000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="I116">
         <v>2</v>
       </c>
       <c r="J116">
-        <v>13.808219178082194</v>
+        <v>12.657534246575342</v>
       </c>
       <c r="K116" s="2">
-        <v>116.08438356164383</v>
+        <v>114.91068493150685</v>
       </c>
       <c r="L116" s="2">
-        <v>0.65231111111111095</v>
+        <v>0.90706666666666647</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4960,7 +4966,7 @@
         <v>100</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D117" t="s">
         <v>19</v>
@@ -4969,25 +4975,25 @@
         <v>27</v>
       </c>
       <c r="F117">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G117" t="s">
         <v>16</v>
       </c>
       <c r="H117">
-        <v>0.56000000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="I117">
         <v>2</v>
       </c>
       <c r="J117">
-        <v>27.616438356164387</v>
+        <v>18.986301369863014</v>
       </c>
       <c r="K117" s="2">
-        <v>130.16876712328767</v>
+        <v>121.36602739726027</v>
       </c>
       <c r="L117" s="2">
-        <v>0.6117555555555555</v>
+        <v>0.86651111111111134</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -4998,7 +5004,7 @@
         <v>100</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
@@ -5007,25 +5013,25 @@
         <v>27</v>
       </c>
       <c r="F118">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G118" t="s">
         <v>16</v>
       </c>
       <c r="H118">
-        <v>0.56000000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="I118">
         <v>2</v>
       </c>
       <c r="J118">
-        <v>41.424657534246577</v>
+        <v>37.972602739726028</v>
       </c>
       <c r="K118" s="2">
-        <v>144.25315068493151</v>
+        <v>140.73205479452054</v>
       </c>
       <c r="L118" s="2">
-        <v>0.59823703703703723</v>
+        <v>0.82595555555555522</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -5036,7 +5042,7 @@
         <v>100</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
@@ -5045,25 +5051,25 @@
         <v>27</v>
       </c>
       <c r="F119">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G119" t="s">
         <v>16</v>
       </c>
       <c r="H119">
-        <v>0.56000000000000005</v>
+        <v>0.77</v>
       </c>
       <c r="I119">
         <v>2</v>
       </c>
       <c r="J119">
-        <v>55.232876712328775</v>
+        <v>56.958904109589035</v>
       </c>
       <c r="K119" s="2">
-        <v>158.33753424657536</v>
+        <v>160.0980821917808</v>
       </c>
       <c r="L119" s="2">
-        <v>0.59147777777777788</v>
+        <v>0.81243703703703696</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -5074,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="C120" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D120" t="s">
         <v>19</v>
@@ -5083,25 +5089,25 @@
         <v>27</v>
       </c>
       <c r="F120">
-        <v>60</v>
+        <v>360</v>
       </c>
       <c r="G120" t="s">
         <v>16</v>
       </c>
       <c r="H120">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="I120">
         <v>2</v>
       </c>
       <c r="J120">
-        <v>12.164383561643836</v>
+        <v>75.945205479452056</v>
       </c>
       <c r="K120" s="2">
-        <v>114.40767123287672</v>
+        <v>179.4641095890411</v>
       </c>
       <c r="L120" s="2">
-        <v>0.87646666666666695</v>
+        <v>0.80567777777777783</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -5112,7 +5118,7 @@
         <v>100</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
@@ -5121,25 +5127,25 @@
         <v>27</v>
       </c>
       <c r="F121">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="G121" t="s">
         <v>16</v>
       </c>
       <c r="H121">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>18.246575342465754</v>
+        <v>9.8630136986301373</v>
       </c>
       <c r="K121" s="2">
-        <v>120.61150684931506</v>
+        <v>112.06027397260274</v>
       </c>
       <c r="L121" s="2">
-        <v>0.83591111111111061</v>
+        <v>0.73366666666666691</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5150,7 +5156,7 @@
         <v>100</v>
       </c>
       <c r="C122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D122" t="s">
         <v>19</v>
@@ -5159,25 +5165,25 @@
         <v>27</v>
       </c>
       <c r="F122">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="G122" t="s">
         <v>16</v>
       </c>
       <c r="H122">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>36.493150684931507</v>
+        <v>14.794520547945206</v>
       </c>
       <c r="K122" s="2">
-        <v>139.22301369863013</v>
+        <v>117.09041095890412</v>
       </c>
       <c r="L122" s="2">
-        <v>0.79535555555555537</v>
+        <v>0.69311111111111123</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5188,7 +5194,7 @@
         <v>100</v>
       </c>
       <c r="C123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D123" t="s">
         <v>19</v>
@@ -5197,25 +5203,25 @@
         <v>27</v>
       </c>
       <c r="F123">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="G123" t="s">
         <v>16</v>
       </c>
       <c r="H123">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>54.739726027397261</v>
+        <v>29.589041095890412</v>
       </c>
       <c r="K123" s="2">
-        <v>157.83452054794523</v>
+        <v>132.18082191780823</v>
       </c>
       <c r="L123" s="2">
-        <v>0.78183703703703733</v>
+        <v>0.65255555555555556</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5226,7 +5232,7 @@
         <v>100</v>
       </c>
       <c r="C124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D124" t="s">
         <v>19</v>
@@ -5235,24 +5241,252 @@
         <v>27</v>
       </c>
       <c r="F124">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="G124" t="s">
         <v>16</v>
       </c>
       <c r="H124">
-        <v>0.74</v>
+        <v>0.6</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
+        <v>44.383561643835613</v>
+      </c>
+      <c r="K124" s="2">
+        <v>147.27123287671233</v>
+      </c>
+      <c r="L124" s="2">
+        <v>0.63903703703703707</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125">
+        <v>100</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125">
+        <v>360</v>
+      </c>
+      <c r="G125" t="s">
+        <v>16</v>
+      </c>
+      <c r="H125">
+        <v>0.6</v>
+      </c>
+      <c r="I125">
+        <v>2</v>
+      </c>
+      <c r="J125">
+        <v>59.178082191780824</v>
+      </c>
+      <c r="K125">
+        <v>162.36164383561643</v>
+      </c>
+      <c r="L125">
+        <v>0.63227777777777783</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126">
+        <v>100</v>
+      </c>
+      <c r="C126" t="s">
+        <v>29</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126">
+        <v>60</v>
+      </c>
+      <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126">
+        <v>0.74</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>12.164383561643836</v>
+      </c>
+      <c r="K126">
+        <v>114.40767123287672</v>
+      </c>
+      <c r="L126">
+        <v>0.87646666666666695</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127">
+        <v>100</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127">
+        <v>90</v>
+      </c>
+      <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127">
+        <v>0.74</v>
+      </c>
+      <c r="I127">
+        <v>2</v>
+      </c>
+      <c r="J127">
+        <v>18.246575342465754</v>
+      </c>
+      <c r="K127">
+        <v>120.61150684931506</v>
+      </c>
+      <c r="L127">
+        <v>0.83591111111111061</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128">
+        <v>100</v>
+      </c>
+      <c r="C128" t="s">
+        <v>29</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128">
+        <v>180</v>
+      </c>
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128">
+        <v>0.74</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128">
+        <v>36.493150684931507</v>
+      </c>
+      <c r="K128">
+        <v>139.22301369863013</v>
+      </c>
+      <c r="L128">
+        <v>0.79535555555555537</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129">
+        <v>100</v>
+      </c>
+      <c r="C129" t="s">
+        <v>29</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129">
+        <v>270</v>
+      </c>
+      <c r="G129" t="s">
+        <v>16</v>
+      </c>
+      <c r="H129">
+        <v>0.74</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>54.739726027397261</v>
+      </c>
+      <c r="K129">
+        <v>157.83452054794523</v>
+      </c>
+      <c r="L129">
+        <v>0.78183703703703733</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130">
+        <v>100</v>
+      </c>
+      <c r="C130" t="s">
+        <v>29</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130">
+        <v>360</v>
+      </c>
+      <c r="G130" t="s">
+        <v>16</v>
+      </c>
+      <c r="H130">
+        <v>0.74</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
         <v>72.986301369863014</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K130">
         <v>176.44602739726028</v>
       </c>
-      <c r="L124" s="2">
+      <c r="L130">
         <v>0.77507777777777775</v>
       </c>
     </row>

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B04D8A36-D737-4457-B579-AA63D253311D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CCF05-73A8-4BEC-8C04-8217CD4F88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -611,19 +611,19 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I2">
         <v>1.7999999999999998</v>
       </c>
       <c r="J2">
-        <v>3.2054794520547945</v>
+        <v>3.4520547945205484</v>
       </c>
       <c r="K2" s="2">
-        <v>105.06317808219178</v>
+        <v>105.31419178082191</v>
       </c>
       <c r="L2" s="2">
-        <v>0.10267000000000015</v>
+        <v>0.10775999999999981</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -652,16 +652,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>105</v>
+        <v>105.3</v>
       </c>
       <c r="L3" s="2">
-        <v>0.10138888888888899</v>
+        <v>0.10747222222222208</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -687,19 +687,19 @@
         <v>13</v>
       </c>
       <c r="H4">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I4">
         <v>1.7999999999999998</v>
       </c>
       <c r="J4">
-        <v>5.5479452054794516</v>
+        <v>5.9178082191780819</v>
       </c>
       <c r="K4" s="2">
-        <v>107.44780821917809</v>
+        <v>107.82432876712329</v>
       </c>
       <c r="L4" s="2">
-        <v>0.10068333333333326</v>
+        <v>0.10577333333333336</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>107.5</v>
+        <v>108</v>
       </c>
       <c r="L5" s="2">
-        <v>0.10138888888888883</v>
+        <v>0.10814814814814824</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -763,19 +763,19 @@
         <v>13</v>
       </c>
       <c r="H6">
-        <v>8.5000000000000006E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I6">
         <v>1.7999999999999998</v>
       </c>
       <c r="J6">
-        <v>8.383561643835618</v>
+        <v>8.8767123287671232</v>
       </c>
       <c r="K6" s="2">
-        <v>110.33446575342467</v>
+        <v>110.83649315068493</v>
       </c>
       <c r="L6" s="2">
-        <v>0.10478000000000014</v>
+        <v>0.10987000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -804,16 +804,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>10.299999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>110.3</v>
+        <v>111.1</v>
       </c>
       <c r="L7" s="2">
-        <v>0.10443055555555554</v>
+        <v>0.11254166666666666</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -839,19 +839,19 @@
         <v>13</v>
       </c>
       <c r="H8">
-        <v>6.5000000000000002E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I8">
         <v>1.7999999999999998</v>
       </c>
       <c r="J8">
-        <v>3.2054794520547945</v>
+        <v>3.4520547945205484</v>
       </c>
       <c r="K8" s="2">
-        <v>105.06317808219178</v>
+        <v>105.31419178082191</v>
       </c>
       <c r="L8" s="2">
-        <v>0.10267000000000015</v>
+        <v>0.10775999999999981</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -880,16 +880,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>105</v>
+        <v>105.3</v>
       </c>
       <c r="L9" s="2">
-        <v>0.10138888888888899</v>
+        <v>0.10747222222222208</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -915,19 +915,19 @@
         <v>13</v>
       </c>
       <c r="H10">
-        <v>7.4999999999999997E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I10">
         <v>1.7999999999999998</v>
       </c>
       <c r="J10">
-        <v>5.5479452054794516</v>
+        <v>5.9178082191780819</v>
       </c>
       <c r="K10" s="2">
-        <v>107.44780821917809</v>
+        <v>107.82432876712329</v>
       </c>
       <c r="L10" s="2">
-        <v>0.10068333333333326</v>
+        <v>0.10577333333333336</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -956,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <v>107.5</v>
+        <v>108</v>
       </c>
       <c r="L11" s="2">
-        <v>0.10138888888888883</v>
+        <v>0.10814814814814824</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -991,19 +991,19 @@
         <v>13</v>
       </c>
       <c r="H12">
-        <v>8.5000000000000006E-2</v>
+        <v>0.09</v>
       </c>
       <c r="I12">
         <v>1.7999999999999998</v>
       </c>
       <c r="J12">
-        <v>8.383561643835618</v>
+        <v>8.8767123287671232</v>
       </c>
       <c r="K12" s="2">
-        <v>110.33446575342467</v>
+        <v>110.83649315068493</v>
       </c>
       <c r="L12" s="2">
-        <v>0.10478000000000014</v>
+        <v>0.10987000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1032,16 +1032,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>10.299999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>110.3</v>
+        <v>111.1</v>
       </c>
       <c r="L13" s="2">
-        <v>0.10443055555555554</v>
+        <v>0.11254166666666666</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1713,19 +1713,19 @@
         <v>16</v>
       </c>
       <c r="H31">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
       <c r="I31">
-        <v>13.4</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="J31">
-        <v>17.260273972602739</v>
+        <v>18.739726027397261</v>
       </c>
       <c r="K31" s="2">
-        <v>132.97315068493151</v>
+        <v>136.43194520547945</v>
       </c>
       <c r="L31" s="2">
-        <v>0.66862222222222245</v>
+        <v>0.73875888888888896</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1751,19 +1751,19 @@
         <v>16</v>
       </c>
       <c r="H32">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="I32">
-        <v>13.4</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="J32">
-        <v>31.808219178082194</v>
+        <v>33.287671232876711</v>
       </c>
       <c r="K32" s="2">
-        <v>149.4705205479452</v>
+        <v>153.14753424657533</v>
       </c>
       <c r="L32" s="2">
-        <v>0.66876814814814822</v>
+        <v>0.71847592592592568</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -1792,16 +1792,16 @@
         <v>0.48</v>
       </c>
       <c r="I33">
-        <v>13.4</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="J33">
         <v>47.342465753424655</v>
       </c>
       <c r="K33" s="2">
-        <v>167.08635616438357</v>
+        <v>169.29649315068494</v>
       </c>
       <c r="L33" s="2">
-        <v>0.68018111111111113</v>
+        <v>0.70258944444444449</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -1827,19 +1827,19 @@
         <v>16</v>
       </c>
       <c r="H34">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="I34">
-        <v>13.4</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="J34">
-        <v>18.739726027397261</v>
+        <v>20.219178082191782</v>
       </c>
       <c r="K34" s="2">
-        <v>134.65084931506848</v>
+        <v>138.13183561643837</v>
       </c>
       <c r="L34" s="2">
-        <v>0.70264222222222195</v>
+        <v>0.77322888888888885</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -1865,19 +1865,19 @@
         <v>16</v>
       </c>
       <c r="H35">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="I35">
-        <v>13.4</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="J35">
-        <v>34.027397260273972</v>
+        <v>35.506849315068493</v>
       </c>
       <c r="K35" s="2">
-        <v>151.98706849315067</v>
+        <v>155.69736986301371</v>
       </c>
       <c r="L35" s="2">
-        <v>0.70278814814814794</v>
+        <v>0.75294592592592602</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -1906,16 +1906,16 @@
         <v>0.52</v>
       </c>
       <c r="I36">
-        <v>13.4</v>
+        <v>14.899999999999999</v>
       </c>
       <c r="J36">
         <v>51.287671232876711</v>
       </c>
       <c r="K36" s="2">
-        <v>171.56021917808215</v>
+        <v>173.82953424657532</v>
       </c>
       <c r="L36" s="2">
-        <v>0.72554111111111064</v>
+        <v>0.74854944444444427</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -2093,19 +2093,19 @@
         <v>16</v>
       </c>
       <c r="H41">
-        <v>0.53749999999999998</v>
+        <v>0.68</v>
       </c>
       <c r="I41">
         <v>5.3</v>
       </c>
       <c r="J41">
-        <v>26.506849315068493</v>
+        <v>33.534246575342472</v>
       </c>
       <c r="K41" s="2">
-        <v>133.21171232876713</v>
+        <v>140.61156164383561</v>
       </c>
       <c r="L41" s="2">
-        <v>0.6734597222222225</v>
+        <v>0.82351222222222209</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -2131,19 +2131,19 @@
         <v>16</v>
       </c>
       <c r="H42">
-        <v>0.62060000000000004</v>
+        <v>0.76319999999999999</v>
       </c>
       <c r="I42">
         <v>5.3</v>
       </c>
       <c r="J42">
-        <v>40.806575342465756</v>
+        <v>50.183013698630127</v>
       </c>
       <c r="K42" s="2">
-        <v>148.26932383561643</v>
+        <v>158.14271342465753</v>
       </c>
       <c r="L42" s="2">
-        <v>0.73409596666666677</v>
+        <v>0.88425376666666655</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -2169,19 +2169,19 @@
         <v>16</v>
       </c>
       <c r="H43">
-        <v>0.63170000000000004</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="I43">
         <v>5.3</v>
       </c>
       <c r="J43">
-        <v>31.15232876712329</v>
+        <v>38.184657534246568</v>
       </c>
       <c r="K43" s="2">
-        <v>138.10340219178082</v>
+        <v>145.50844438356162</v>
       </c>
       <c r="L43" s="2">
-        <v>0.77265232222222202</v>
+        <v>0.92281012222222203</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -2207,19 +2207,19 @@
         <v>16</v>
       </c>
       <c r="H44">
-        <v>0.66500000000000004</v>
+        <v>0.8075</v>
       </c>
       <c r="I44">
         <v>5.3</v>
       </c>
       <c r="J44">
-        <v>43.726027397260275</v>
+        <v>53.095890410958901</v>
       </c>
       <c r="K44" s="2">
-        <v>151.34350684931508</v>
+        <v>161.20997260273973</v>
       </c>
       <c r="L44" s="2">
-        <v>0.78084916666666682</v>
+        <v>0.93090166666666663</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -2701,19 +2701,19 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.48249999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>23.794520547945204</v>
+        <v>30.082191780821915</v>
       </c>
       <c r="K57" s="2">
-        <v>137.28812328767123</v>
+        <v>144.26115068493152</v>
       </c>
       <c r="L57" s="2">
-        <v>0.75612027777777735</v>
+        <v>0.89751777777777819</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2739,19 +2739,19 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.54500000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>40.315068493150683</v>
+        <v>49.561643835616444</v>
       </c>
       <c r="K58" s="2">
-        <v>155.60941095890411</v>
+        <v>165.86386301369862</v>
       </c>
       <c r="L58" s="2">
-        <v>0.7517568518518517</v>
+        <v>0.8903818518518517</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2777,19 +2777,19 @@
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="I59">
         <v>10.9</v>
       </c>
       <c r="J59">
-        <v>57.205479452054789</v>
+        <v>69.041095890410958</v>
       </c>
       <c r="K59" s="2">
-        <v>174.34087671232876</v>
+        <v>187.46657534246575</v>
       </c>
       <c r="L59" s="2">
-        <v>0.75373388888888893</v>
+        <v>0.88681388888888868</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,19 +2815,19 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.48249999999999998</v>
+        <v>0.61</v>
       </c>
       <c r="I60">
         <v>10.9</v>
       </c>
       <c r="J60">
-        <v>23.794520547945204</v>
+        <v>30.082191780821915</v>
       </c>
       <c r="K60" s="2">
-        <v>137.28812328767123</v>
+        <v>144.26115068493152</v>
       </c>
       <c r="L60" s="2">
-        <v>0.75612027777777735</v>
+        <v>0.89751777777777819</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2853,19 +2853,19 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.54500000000000004</v>
+        <v>0.67</v>
       </c>
       <c r="I61">
         <v>10.9</v>
       </c>
       <c r="J61">
-        <v>40.315068493150683</v>
+        <v>49.561643835616444</v>
       </c>
       <c r="K61" s="2">
-        <v>155.60941095890411</v>
+        <v>165.86386301369862</v>
       </c>
       <c r="L61" s="2">
-        <v>0.7517568518518517</v>
+        <v>0.8903818518518517</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2891,19 +2891,19 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.57999999999999996</v>
+        <v>0.7</v>
       </c>
       <c r="I62">
         <v>10.9</v>
       </c>
       <c r="J62">
-        <v>57.205479452054789</v>
+        <v>69.041095890410958</v>
       </c>
       <c r="K62" s="2">
-        <v>174.34087671232876</v>
+        <v>187.46657534246575</v>
       </c>
       <c r="L62" s="2">
-        <v>0.75373388888888893</v>
+        <v>0.88681388888888868</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -2932,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>11.785016578546461</v>
+        <v>18.147631812115161</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>111.78501657854648</v>
+        <v>118.14763181211516</v>
       </c>
       <c r="L63" s="2">
-        <v>0.71692184186157693</v>
+        <v>1.1039809352370056</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -2970,16 +2970,16 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>16.168366117124744</v>
+        <v>25.734637028384011</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <v>116.16836611712475</v>
+        <v>125.73463702838401</v>
       </c>
       <c r="L64" s="2">
-        <v>0.65571707030561499</v>
+        <v>1.0436825017066849</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -3008,16 +3008,16 @@
         <v>0</v>
       </c>
       <c r="I65">
-        <v>20.559241014822881</v>
+        <v>33.344173594159535</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <v>120.55924101482289</v>
+        <v>133.34417359415954</v>
       </c>
       <c r="L65" s="2">
-        <v>0.62534358086752961</v>
+        <v>1.0142186134890192</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -3046,16 +3046,16 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>11.604317750144544</v>
+        <v>20.527913861308324</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>111.60431775014455</v>
+        <v>120.52791386130832</v>
       </c>
       <c r="L66" s="2">
-        <v>0.70592932980045975</v>
+        <v>1.2487814265629229</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -3084,16 +3084,16 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>16.448677843785603</v>
+        <v>31.729722566457259</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <v>116.4486778437856</v>
+        <v>131.72972256645724</v>
       </c>
       <c r="L67" s="2">
-        <v>0.66708526810908308</v>
+        <v>1.2868165263063209</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="I68">
-        <v>21.736832077229231</v>
+        <v>45.248249260974724</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <v>121.73683207722922</v>
+        <v>145.24824926097472</v>
       </c>
       <c r="L68" s="2">
-        <v>0.66116197568238899</v>
+        <v>1.3763009150213146</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -3160,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>27.532692234359345</v>
+        <v>61.885088376603349</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <v>127.53269223435935</v>
+        <v>161.88508837660333</v>
       </c>
       <c r="L69" s="2">
-        <v>0.66996217770274413</v>
+        <v>1.5058704838306811</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>33.913061020568385</v>
+        <v>82.859853316326522</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <v>133.91306102056839</v>
+        <v>182.85985331632654</v>
       </c>
       <c r="L70" s="2">
-        <v>0.68768151513930342</v>
+        <v>1.6802136922477324</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -3236,16 +3236,16 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>9</v>
+        <v>17.39030612244898</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <v>109.00000000000001</v>
+        <v>117.39030612244899</v>
       </c>
       <c r="L71" s="2">
-        <v>0.54750000000000054</v>
+        <v>1.0579102891156467</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -3274,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>12</v>
+        <v>26.192934316583777</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <v>112.00000000000001</v>
+        <v>126.19293431658379</v>
       </c>
       <c r="L72" s="2">
-        <v>0.48666666666666714</v>
+        <v>1.0622690028392312</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -3312,16 +3312,16 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>16</v>
+        <v>36.435992578849721</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <v>115.99999999999999</v>
+        <v>136.43599257884972</v>
       </c>
       <c r="L73" s="2">
-        <v>0.48666666666666641</v>
+        <v>1.1082614409400127</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -3350,16 +3350,16 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>20</v>
+        <v>48.504546373004636</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <v>120</v>
+        <v>148.50454637300464</v>
       </c>
       <c r="L74" s="2">
-        <v>0.48666666666666658</v>
+        <v>1.1802772950764466</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -3388,16 +3388,16 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>24</v>
+        <v>62.934338952972489</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <v>124</v>
+        <v>162.9343389529725</v>
       </c>
       <c r="L75" s="2">
-        <v>0.48666666666666664</v>
+        <v>1.27616853987972</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L76" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L77" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3502,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>14.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>114.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L78" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.54749999999999976</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3540,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L79" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.53533333333333322</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3578,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L80" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3616,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L81" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3654,16 +3654,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L82" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3692,16 +3692,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>14.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>114.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L83" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.54749999999999976</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3730,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L84" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.53533333333333322</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3768,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L85" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3806,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L86" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3844,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L87" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3882,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>14.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>114.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L88" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.54749999999999976</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3920,16 +3920,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L89" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.53533333333333322</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3958,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L90" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3996,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L91" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L92" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4072,16 +4072,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>14.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>114.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L93" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.54749999999999976</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L94" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.53533333333333322</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4148,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L95" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L96" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4224,16 +4224,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L97" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4262,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>14.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>114.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L98" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.54749999999999976</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4300,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L99" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.53533333333333322</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4338,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L100" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4376,16 +4376,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L101" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4414,16 +4414,16 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L102" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4452,16 +4452,16 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>14.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" s="2">
-        <v>114.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L103" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.54749999999999976</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4490,16 +4490,16 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L104" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.53533333333333322</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4528,16 +4528,16 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L105" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4566,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>7.0000000000000009</v>
+        <v>10</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106" s="2">
-        <v>107</v>
+        <v>110.00000000000001</v>
       </c>
       <c r="L106" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.60833333333333384</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4604,16 +4604,16 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>10</v>
+        <v>14.000000000000002</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" s="2">
-        <v>110.00000000000001</v>
+        <v>114.00000000000001</v>
       </c>
       <c r="L107" s="2">
-        <v>0.40555555555555595</v>
+        <v>0.56777777777777827</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4642,16 +4642,16 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>14.000000000000002</v>
+        <v>18</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108" s="2">
-        <v>114.00000000000001</v>
+        <v>118</v>
       </c>
       <c r="L108" s="2">
-        <v>0.42583333333333367</v>
+        <v>0.54749999999999976</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4680,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109" s="2">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="L109" s="2">
-        <v>0.41366666666666646</v>
+        <v>0.53533333333333322</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4718,16 +4718,16 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110" s="2">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="L110" s="2">
-        <v>0.4055555555555555</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4753,19 +4753,19 @@
         <v>16</v>
       </c>
       <c r="H111">
-        <v>0.58102592592592583</v>
+        <v>0.68756874999999962</v>
       </c>
       <c r="I111">
         <v>2</v>
       </c>
       <c r="J111">
-        <v>9.5511111111111102</v>
+        <v>11.302499999999993</v>
       </c>
       <c r="K111" s="2">
-        <v>111.74213333333333</v>
+        <v>113.52855</v>
       </c>
       <c r="L111" s="2">
-        <v>0.7143131111111114</v>
+        <v>0.82298679166666644</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4791,19 +4791,19 @@
         <v>16</v>
       </c>
       <c r="H112">
-        <v>0.5946862386831272</v>
+        <v>0.70664557638888814</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112">
-        <v>14.663496296296286</v>
+        <v>17.424137499999979</v>
       </c>
       <c r="K112" s="2">
-        <v>116.95676622222221</v>
+        <v>119.77262024999997</v>
       </c>
       <c r="L112" s="2">
-        <v>0.68769107456790113</v>
+        <v>0.80188959902777668</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4829,19 +4829,19 @@
         <v>16</v>
       </c>
       <c r="H113">
-        <v>0.63828713597506948</v>
+        <v>0.76820902482272202</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113">
-        <v>31.477173828907535</v>
+        <v>37.884280676189029</v>
       </c>
       <c r="K113" s="2">
-        <v>134.10671730548569</v>
+        <v>140.6419662897128</v>
       </c>
       <c r="L113" s="2">
-        <v>0.69160843425012641</v>
+        <v>0.82412876087473164</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4867,19 +4867,19 @@
         <v>16</v>
       </c>
       <c r="H114">
-        <v>0.76034146928373181</v>
+        <v>0.91596428303281763</v>
       </c>
       <c r="I114">
         <v>2</v>
       </c>
       <c r="J114">
-        <v>56.244437453865089</v>
+        <v>67.756262032564592</v>
       </c>
       <c r="K114" s="2">
-        <v>159.3693262029424</v>
+        <v>171.11138727321588</v>
       </c>
       <c r="L114" s="2">
-        <v>0.80258533570644353</v>
+        <v>0.96132060573051104</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4905,19 +4905,19 @@
         <v>16</v>
       </c>
       <c r="H115">
-        <v>0.82432672201074875</v>
+        <v>1.0070911208344702</v>
       </c>
       <c r="I115">
         <v>2</v>
       </c>
       <c r="J115">
-        <v>81.303457513388906</v>
+        <v>99.329535205591569</v>
       </c>
       <c r="K115" s="2">
-        <v>184.92952666365667</v>
+        <v>203.3161259097034</v>
       </c>
       <c r="L115" s="2">
-        <v>0.86109103422874123</v>
+        <v>1.0475107210289369</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -5133,19 +5133,19 @@
         <v>16</v>
       </c>
       <c r="H121">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>9.8630136986301373</v>
+        <v>10.356164383561643</v>
       </c>
       <c r="K121" s="2">
-        <v>112.06027397260274</v>
+        <v>112.56328767123287</v>
       </c>
       <c r="L121" s="2">
-        <v>0.73366666666666691</v>
+        <v>0.76426666666666621</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5171,19 +5171,19 @@
         <v>16</v>
       </c>
       <c r="H122">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>14.794520547945206</v>
+        <v>15.534246575342465</v>
       </c>
       <c r="K122" s="2">
-        <v>117.09041095890412</v>
+        <v>117.84493150684931</v>
       </c>
       <c r="L122" s="2">
-        <v>0.69311111111111123</v>
+        <v>0.72371111111111108</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5209,19 +5209,19 @@
         <v>16</v>
       </c>
       <c r="H123">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>29.589041095890412</v>
+        <v>31.06849315068493</v>
       </c>
       <c r="K123" s="2">
-        <v>132.18082191780823</v>
+        <v>133.68986301369861</v>
       </c>
       <c r="L123" s="2">
-        <v>0.65255555555555556</v>
+        <v>0.68315555555555507</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5247,19 +5247,19 @@
         <v>16</v>
       </c>
       <c r="H124">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>44.383561643835613</v>
+        <v>46.602739726027394</v>
       </c>
       <c r="K124" s="2">
-        <v>147.27123287671233</v>
+        <v>149.53479452054793</v>
       </c>
       <c r="L124" s="2">
-        <v>0.63903703703703707</v>
+        <v>0.66963703703703703</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -5285,19 +5285,19 @@
         <v>16</v>
       </c>
       <c r="H125">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125">
-        <v>59.178082191780824</v>
+        <v>62.136986301369859</v>
       </c>
       <c r="K125">
-        <v>162.36164383561643</v>
+        <v>165.37972602739725</v>
       </c>
       <c r="L125">
-        <v>0.63227777777777783</v>
+        <v>0.66287777777777779</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">

--- a/public/datos.xlsx
+++ b/public/datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Financiera\Gestion Financiera\Condiciones Comerciales - Convenios Tarjetas\Simulador online\simulador ok\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CCF05-73A8-4BEC-8C04-8217CD4F88C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA633F8-0F0B-48BA-A01A-F6D8711AB207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{5F5C8F4A-A9C3-4394-B81C-80D194F2AEAA}"/>
   </bookViews>
@@ -2701,19 +2701,19 @@
         <v>16</v>
       </c>
       <c r="H57">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I57">
         <v>10.9</v>
       </c>
       <c r="J57">
-        <v>30.082191780821915</v>
+        <v>32.054794520547944</v>
       </c>
       <c r="K57" s="2">
-        <v>144.26115068493152</v>
+        <v>146.44876712328767</v>
       </c>
       <c r="L57" s="2">
-        <v>0.89751777777777819</v>
+        <v>0.9418777777777777</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -2739,19 +2739,19 @@
         <v>16</v>
       </c>
       <c r="H58">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="I58">
         <v>10.9</v>
       </c>
       <c r="J58">
-        <v>49.561643835616444</v>
+        <v>52.520547945205479</v>
       </c>
       <c r="K58" s="2">
-        <v>165.86386301369862</v>
+        <v>169.14528767123286</v>
       </c>
       <c r="L58" s="2">
-        <v>0.8903818518518517</v>
+        <v>0.93474185185185177</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -2777,19 +2777,19 @@
         <v>16</v>
       </c>
       <c r="H59">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="I59">
         <v>10.9</v>
       </c>
       <c r="J59">
-        <v>69.041095890410958</v>
+        <v>72.986301369863014</v>
       </c>
       <c r="K59" s="2">
-        <v>187.46657534246575</v>
+        <v>191.84180821917809</v>
       </c>
       <c r="L59" s="2">
-        <v>0.88681388888888868</v>
+        <v>0.93117388888888908</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2815,19 +2815,19 @@
         <v>16</v>
       </c>
       <c r="H60">
-        <v>0.61</v>
+        <v>0.65</v>
       </c>
       <c r="I60">
         <v>10.9</v>
       </c>
       <c r="J60">
-        <v>30.082191780821915</v>
+        <v>32.054794520547944</v>
       </c>
       <c r="K60" s="2">
-        <v>144.26115068493152</v>
+        <v>146.44876712328767</v>
       </c>
       <c r="L60" s="2">
-        <v>0.89751777777777819</v>
+        <v>0.9418777777777777</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -2853,19 +2853,19 @@
         <v>16</v>
       </c>
       <c r="H61">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="I61">
         <v>10.9</v>
       </c>
       <c r="J61">
-        <v>49.561643835616444</v>
+        <v>52.520547945205479</v>
       </c>
       <c r="K61" s="2">
-        <v>165.86386301369862</v>
+        <v>169.14528767123286</v>
       </c>
       <c r="L61" s="2">
-        <v>0.8903818518518517</v>
+        <v>0.93474185185185177</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -2891,19 +2891,19 @@
         <v>16</v>
       </c>
       <c r="H62">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="I62">
         <v>10.9</v>
       </c>
       <c r="J62">
-        <v>69.041095890410958</v>
+        <v>72.986301369863014</v>
       </c>
       <c r="K62" s="2">
-        <v>187.46657534246575</v>
+        <v>191.84180821917809</v>
       </c>
       <c r="L62" s="2">
-        <v>0.88681388888888868</v>
+        <v>0.93117388888888908</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="I76">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <v>110.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L76" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -3464,16 +3464,16 @@
         <v>0</v>
       </c>
       <c r="I77">
-        <v>14.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <v>114.00000000000001</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L77" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -3502,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="I78">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L78" s="2">
-        <v>0.54749999999999976</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -3540,16 +3540,16 @@
         <v>0</v>
       </c>
       <c r="I79">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L79" s="2">
-        <v>0.53533333333333322</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -3578,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="I80">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L80" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -3616,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="I81">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J81">
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <v>110.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L81" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -3654,16 +3654,16 @@
         <v>0</v>
       </c>
       <c r="I82">
-        <v>14.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="J82">
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <v>114.00000000000001</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L82" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -3692,16 +3692,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L83" s="2">
-        <v>0.54749999999999976</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3730,16 +3730,16 @@
         <v>0</v>
       </c>
       <c r="I84">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L84" s="2">
-        <v>0.53533333333333322</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -3768,16 +3768,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L85" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -3806,16 +3806,16 @@
         <v>0</v>
       </c>
       <c r="I86">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J86">
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <v>110.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L86" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -3844,16 +3844,16 @@
         <v>0</v>
       </c>
       <c r="I87">
-        <v>14.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <v>114.00000000000001</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L87" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -3882,16 +3882,16 @@
         <v>0</v>
       </c>
       <c r="I88">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J88">
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L88" s="2">
-        <v>0.54749999999999976</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -3920,16 +3920,16 @@
         <v>0</v>
       </c>
       <c r="I89">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L89" s="2">
-        <v>0.53533333333333322</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -3958,16 +3958,16 @@
         <v>0</v>
       </c>
       <c r="I90">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J90">
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L90" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -3996,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="I91">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J91">
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <v>110.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L91" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -4034,16 +4034,16 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>14.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <v>114.00000000000001</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L92" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -4072,16 +4072,16 @@
         <v>0</v>
       </c>
       <c r="I93">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L93" s="2">
-        <v>0.54749999999999976</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -4110,16 +4110,16 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L94" s="2">
-        <v>0.53533333333333322</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -4148,16 +4148,16 @@
         <v>0</v>
       </c>
       <c r="I95">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L95" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="I96">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J96">
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <v>110.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L96" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -4224,16 +4224,16 @@
         <v>0</v>
       </c>
       <c r="I97">
-        <v>14.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <v>114.00000000000001</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L97" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -4262,16 +4262,16 @@
         <v>0</v>
       </c>
       <c r="I98">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L98" s="2">
-        <v>0.54749999999999976</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -4300,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="I99">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L99" s="2">
-        <v>0.53533333333333322</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -4338,16 +4338,16 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L100" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -4376,16 +4376,16 @@
         <v>0</v>
       </c>
       <c r="I101">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101" s="2">
-        <v>110.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L101" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -4414,16 +4414,16 @@
         <v>0</v>
       </c>
       <c r="I102">
-        <v>14.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102" s="2">
-        <v>114.00000000000001</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L102" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -4452,16 +4452,16 @@
         <v>0</v>
       </c>
       <c r="I103">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L103" s="2">
-        <v>0.54749999999999976</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4490,16 +4490,16 @@
         <v>0</v>
       </c>
       <c r="I104">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J104">
         <v>0</v>
       </c>
       <c r="K104" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L104" s="2">
-        <v>0.53533333333333322</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -4528,16 +4528,16 @@
         <v>0</v>
       </c>
       <c r="I105">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J105">
         <v>0</v>
       </c>
       <c r="K105" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L105" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -4566,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="I106">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J106">
         <v>0</v>
       </c>
       <c r="K106" s="2">
-        <v>110.00000000000001</v>
+        <v>112.00000000000001</v>
       </c>
       <c r="L106" s="2">
-        <v>0.60833333333333384</v>
+        <v>0.73000000000000065</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -4604,16 +4604,16 @@
         <v>0</v>
       </c>
       <c r="I107">
-        <v>14.000000000000002</v>
+        <v>16</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107" s="2">
-        <v>114.00000000000001</v>
+        <v>115.99999999999999</v>
       </c>
       <c r="L107" s="2">
-        <v>0.56777777777777827</v>
+        <v>0.64888888888888863</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -4642,16 +4642,16 @@
         <v>0</v>
       </c>
       <c r="I108">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L108" s="2">
-        <v>0.54749999999999976</v>
+        <v>0.63874999999999982</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -4680,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="I109">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L109" s="2">
-        <v>0.53533333333333322</v>
+        <v>0.63266666666666671</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -4718,16 +4718,16 @@
         <v>0</v>
       </c>
       <c r="I110">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110" s="2">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="L110" s="2">
-        <v>0.50694444444444442</v>
+        <v>0.62861111111111123</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -5133,19 +5133,19 @@
         <v>16</v>
       </c>
       <c r="H121">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I121">
         <v>2</v>
       </c>
       <c r="J121">
-        <v>10.356164383561643</v>
+        <v>10.684931506849315</v>
       </c>
       <c r="K121" s="2">
-        <v>112.56328767123287</v>
+        <v>112.89863013698628</v>
       </c>
       <c r="L121" s="2">
-        <v>0.76426666666666621</v>
+        <v>0.78466666666666596</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -5171,19 +5171,19 @@
         <v>16</v>
       </c>
       <c r="H122">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I122">
         <v>2</v>
       </c>
       <c r="J122">
-        <v>15.534246575342465</v>
+        <v>16.027397260273972</v>
       </c>
       <c r="K122" s="2">
-        <v>117.84493150684931</v>
+        <v>118.34794520547946</v>
       </c>
       <c r="L122" s="2">
-        <v>0.72371111111111108</v>
+        <v>0.74411111111111161</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -5209,19 +5209,19 @@
         <v>16</v>
       </c>
       <c r="H123">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I123">
         <v>2</v>
       </c>
       <c r="J123">
-        <v>31.06849315068493</v>
+        <v>32.054794520547944</v>
       </c>
       <c r="K123" s="2">
-        <v>133.68986301369861</v>
+        <v>134.6958904109589</v>
       </c>
       <c r="L123" s="2">
-        <v>0.68315555555555507</v>
+        <v>0.70355555555555516</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -5247,19 +5247,19 @@
         <v>16</v>
       </c>
       <c r="H124">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I124">
         <v>2</v>
       </c>
       <c r="J124">
-        <v>46.602739726027394</v>
+        <v>48.082191780821923</v>
       </c>
       <c r="K124" s="2">
-        <v>149.53479452054793</v>
+        <v>151.04383561643834</v>
       </c>
       <c r="L124" s="2">
-        <v>0.66963703703703703</v>
+        <v>0.69003703703703689</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -5285,19 +5285,19 @@
         <v>16</v>
       </c>
       <c r="H125">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125">
-        <v>62.136986301369859</v>
+        <v>64.109589041095887</v>
       </c>
       <c r="K125">
-        <v>165.37972602739725</v>
+        <v>167.39178082191779</v>
       </c>
       <c r="L125">
-        <v>0.66287777777777779</v>
+        <v>0.68327777777777765</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
